--- a/result.xlsx
+++ b/result.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>sample_1</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>std</t>
+  </si>
+  <si>
+    <t>std_of_mean</t>
   </si>
 </sst>
 </file>
@@ -452,382 +455,382 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="n">
-        <v>90.5649504408977</v>
+        <v>131.438790327161</v>
       </c>
       <c r="B2" t="n">
-        <v>99.4742506433679</v>
+        <v>112.595636673963</v>
       </c>
       <c r="C2" t="n">
-        <v>104.002461898427</v>
+        <v>94.9324083364465</v>
       </c>
       <c r="D2" t="n">
-        <v>92.82540948743539</v>
+        <v>87.3553910759364</v>
       </c>
       <c r="E2" t="n">
-        <v>108.452433661087</v>
+        <v>90.9237693501252</v>
       </c>
       <c r="F2" t="n">
-        <v>76.8809167709255</v>
+        <v>99.6240548820232</v>
       </c>
       <c r="G2" t="n">
-        <v>103.772571262391</v>
+        <v>97.3559501056064</v>
       </c>
       <c r="H2" t="n">
-        <v>112.131724608374</v>
+        <v>141.968407870617</v>
       </c>
       <c r="I2" t="n">
-        <v>73.0662027962868</v>
+        <v>112.370608578525</v>
       </c>
       <c r="J2" t="n">
-        <v>87.3357297803457</v>
+        <v>79.6536935321333</v>
       </c>
       <c r="M2" t="n">
-        <v>99.46913557798685</v>
+        <v>97.11349524849024</v>
       </c>
       <c r="N2" t="n">
-        <v>15.15164167825107</v>
+        <v>26.96790192574062</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="n">
-        <v>110.728407887602</v>
+        <v>123.724369717283</v>
       </c>
       <c r="B3" t="n">
-        <v>81.8739565571769</v>
+        <v>82.9304056974112</v>
       </c>
       <c r="C3" t="n">
-        <v>83.0938166144665</v>
+        <v>86.0906611368722</v>
       </c>
       <c r="D3" t="n">
-        <v>95.4402784939753</v>
+        <v>79.25338435948539</v>
       </c>
       <c r="E3" t="n">
-        <v>49.8427283695054</v>
+        <v>119.305131424177</v>
       </c>
       <c r="F3" t="n">
-        <v>115.542082198667</v>
+        <v>98.84833967519489</v>
       </c>
       <c r="G3" t="n">
-        <v>102.78652488269</v>
+        <v>83.98852173551791</v>
       </c>
       <c r="H3" t="n">
-        <v>125.108063890105</v>
+        <v>94.34661224658549</v>
       </c>
       <c r="I3" t="n">
-        <v>115.542082198667</v>
+        <v>83.94000829482491</v>
       </c>
       <c r="J3" t="n">
-        <v>90.4751794345173</v>
+        <v>130.475925142712</v>
       </c>
       <c r="M3" t="n">
-        <v>102.1309198087495</v>
+        <v>105.8842691830267</v>
       </c>
       <c r="N3" t="n">
-        <v>11.48045112861881</v>
+        <v>16.16125364819187</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="n">
-        <v>98.2005264980896</v>
+        <v>121.445490239961</v>
       </c>
       <c r="B4" t="n">
-        <v>115.163454799811</v>
+        <v>105.789749647227</v>
       </c>
       <c r="C4" t="n">
-        <v>115.813248189277</v>
+        <v>109.857257442219</v>
       </c>
       <c r="D4" t="n">
-        <v>91.61324174039051</v>
+        <v>90.9640742315576</v>
       </c>
       <c r="E4" t="n">
-        <v>96.9775894974525</v>
+        <v>80.3653163552755</v>
       </c>
       <c r="F4" t="n">
-        <v>121.673290446002</v>
+        <v>105.726658175739</v>
       </c>
       <c r="G4" t="n">
-        <v>79.8373939019649</v>
+        <v>102.602127222021</v>
       </c>
       <c r="H4" t="n">
-        <v>87.12242396608551</v>
+        <v>73.7526320690646</v>
       </c>
       <c r="I4" t="n">
-        <v>114.080217720838</v>
+        <v>104.784204855956</v>
       </c>
       <c r="J4" t="n">
-        <v>95.99476182214801</v>
+        <v>98.8182905267664</v>
       </c>
       <c r="M4" t="n">
-        <v>92.48714776605411</v>
+        <v>103.4380111094592</v>
       </c>
       <c r="N4" t="n">
-        <v>26.07856681945563</v>
+        <v>16.55021066183621</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="n">
-        <v>76.6599536341496</v>
+        <v>111.525290255445</v>
       </c>
       <c r="B5" t="n">
-        <v>108.935552972673</v>
+        <v>128.795817983363</v>
       </c>
       <c r="C5" t="n">
-        <v>49.6112258458579</v>
+        <v>109.024632253423</v>
       </c>
       <c r="D5" t="n">
-        <v>73.0662027962868</v>
+        <v>94.34661224658549</v>
       </c>
       <c r="E5" t="n">
-        <v>75.7245676082687</v>
+        <v>67.5694377915171</v>
       </c>
       <c r="F5" t="n">
-        <v>103.330151083921</v>
+        <v>122.975116290847</v>
       </c>
       <c r="G5" t="n">
-        <v>67.6607734124204</v>
+        <v>57.7379595572844</v>
       </c>
       <c r="H5" t="n">
-        <v>89.5333816586833</v>
+        <v>122.954191793234</v>
       </c>
       <c r="I5" t="n">
-        <v>105.362557873188</v>
+        <v>94.7343889057352</v>
       </c>
       <c r="J5" t="n">
-        <v>75.88787900336639</v>
+        <v>148.366249863066</v>
       </c>
       <c r="M5" t="n">
-        <v>97.32523390322365</v>
+        <v>97.57431720328218</v>
       </c>
       <c r="N5" t="n">
-        <v>13.45120194324426</v>
+        <v>20.2529496156306</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="n">
-        <v>103.399291361968</v>
+        <v>107.01216753335</v>
       </c>
       <c r="B6" t="n">
-        <v>96.140782081521</v>
+        <v>105.020147321501</v>
       </c>
       <c r="C6" t="n">
-        <v>114.862491682618</v>
+        <v>86.94022038209501</v>
       </c>
       <c r="D6" t="n">
-        <v>112.387788210263</v>
+        <v>87.9797454301636</v>
       </c>
       <c r="E6" t="n">
-        <v>61.6311313802051</v>
+        <v>95.51107919052561</v>
       </c>
       <c r="F6" t="n">
-        <v>105.515303659617</v>
+        <v>104.083552297358</v>
       </c>
       <c r="G6" t="n">
-        <v>114.497376243853</v>
+        <v>129.539711571983</v>
       </c>
       <c r="H6" t="n">
-        <v>92.5726507331038</v>
+        <v>112.557742196006</v>
       </c>
       <c r="I6" t="n">
-        <v>151.210252461778</v>
+        <v>131.055049142915</v>
       </c>
       <c r="J6" t="n">
-        <v>100.371511559538</v>
+        <v>86.9154965556516</v>
       </c>
       <c r="M6" t="n">
-        <v>87.28653209318789</v>
+        <v>88.01915699092675</v>
       </c>
       <c r="N6" t="n">
-        <v>24.16417846913261</v>
+        <v>15.12911664225738</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="n">
-        <v>115.630624639337</v>
+        <v>64.87422707720189</v>
       </c>
       <c r="B7" t="n">
-        <v>99.1217062316457</v>
+        <v>133.506247080469</v>
       </c>
       <c r="C7" t="n">
-        <v>72.91592906685921</v>
+        <v>113.748134275366</v>
       </c>
       <c r="D7" t="n">
-        <v>119.130577089344</v>
+        <v>92.5563582744345</v>
       </c>
       <c r="E7" t="n">
-        <v>92.2966930851768</v>
+        <v>87.1245457767598</v>
       </c>
       <c r="F7" t="n">
-        <v>76.57964491828081</v>
+        <v>118.957266350648</v>
       </c>
       <c r="G7" t="n">
-        <v>127.137376606107</v>
+        <v>59.6368116219104</v>
       </c>
       <c r="H7" t="n">
-        <v>111.920750894153</v>
+        <v>98.1603121473521</v>
       </c>
       <c r="I7" t="n">
-        <v>51.3206659859354</v>
+        <v>74.6290575254139</v>
       </c>
       <c r="J7" t="n">
-        <v>105.337769701909</v>
+        <v>100.422966627155</v>
       </c>
       <c r="M7" t="n">
-        <v>97.17965703266682</v>
+        <v>101.9387714917649</v>
       </c>
       <c r="N7" t="n">
-        <v>16.21921326499569</v>
+        <v>15.74980799037769</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="n">
-        <v>77.32110584369759</v>
+        <v>87.2167692539343</v>
       </c>
       <c r="B8" t="n">
-        <v>91.848337309665</v>
+        <v>92.36829048992909</v>
       </c>
       <c r="C8" t="n">
-        <v>70.7894783722175</v>
+        <v>137.689514312234</v>
       </c>
       <c r="D8" t="n">
-        <v>100.742038707211</v>
+        <v>145.300505864875</v>
       </c>
       <c r="E8" t="n">
-        <v>105.696636179164</v>
+        <v>69.03421547404081</v>
       </c>
       <c r="F8" t="n">
-        <v>100.832239473671</v>
+        <v>73.0662027962868</v>
       </c>
       <c r="G8" t="n">
-        <v>97.1140160699516</v>
+        <v>111.142356856495</v>
       </c>
       <c r="H8" t="n">
-        <v>94.4344083747811</v>
+        <v>95.99476182214801</v>
       </c>
       <c r="I8" t="n">
-        <v>99.4742506433679</v>
+        <v>74.0554899542971</v>
       </c>
       <c r="J8" t="n">
-        <v>144.458102055705</v>
+        <v>120.913435991714</v>
       </c>
       <c r="M8" t="n">
-        <v>99.25328573664861</v>
+        <v>88.93646510210974</v>
       </c>
       <c r="N8" t="n">
-        <v>19.12566221660417</v>
+        <v>22.60848780715222</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="n">
-        <v>99.96981757641289</v>
+        <v>77.3833291136748</v>
       </c>
       <c r="B9" t="n">
-        <v>113.979383418544</v>
+        <v>104.726796442986</v>
       </c>
       <c r="C9" t="n">
-        <v>70.797325603882</v>
+        <v>92.82540948743539</v>
       </c>
       <c r="D9" t="n">
-        <v>97.03493842570521</v>
+        <v>88.77221722263739</v>
       </c>
       <c r="E9" t="n">
-        <v>130.31853928349</v>
+        <v>96.0955950116157</v>
       </c>
       <c r="F9" t="n">
-        <v>104.020518115159</v>
+        <v>117.369389358205</v>
       </c>
       <c r="G9" t="n">
-        <v>117.369389358205</v>
+        <v>76.00429428488521</v>
       </c>
       <c r="H9" t="n">
-        <v>100.371511559538</v>
+        <v>104.726796442986</v>
       </c>
       <c r="I9" t="n">
-        <v>117.295112846294</v>
+        <v>108.002854413903</v>
       </c>
       <c r="J9" t="n">
-        <v>98.1332366469797</v>
+        <v>97.7603683807402</v>
       </c>
       <c r="M9" t="n">
-        <v>98.35861194060797</v>
+        <v>106.385257508757</v>
       </c>
       <c r="N9" t="n">
-        <v>13.72456014027009</v>
+        <v>21.35225256928265</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="n">
-        <v>98.86377960368699</v>
+        <v>49.8427283695054</v>
       </c>
       <c r="B10" t="n">
-        <v>97.22787786167591</v>
+        <v>88.43122355779759</v>
       </c>
       <c r="C10" t="n">
-        <v>123.724369717283</v>
+        <v>114.840649910703</v>
       </c>
       <c r="D10" t="n">
-        <v>106.967880027414</v>
+        <v>122.299386771495</v>
       </c>
       <c r="E10" t="n">
-        <v>80.8145113087877</v>
+        <v>79.6536935321333</v>
       </c>
       <c r="F10" t="n">
-        <v>89.3592852355073</v>
+        <v>83.0938166144665</v>
       </c>
       <c r="G10" t="n">
-        <v>105.515303659617</v>
+        <v>76.8421319692862</v>
       </c>
       <c r="H10" t="n">
-        <v>84.0744929929146</v>
+        <v>86.0906611368722</v>
       </c>
       <c r="I10" t="n">
-        <v>98.09740553248611</v>
+        <v>107.854172470889</v>
       </c>
       <c r="J10" t="n">
-        <v>73.44959128965129</v>
+        <v>95.93956705435551</v>
       </c>
       <c r="M10" t="n">
-        <v>102.4072637079162</v>
+        <v>99.35858501225212</v>
       </c>
       <c r="N10" t="n">
-        <v>26.73558703807845</v>
+        <v>17.85457989313795</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="n">
-        <v>123.352898294027</v>
+        <v>96.67179059738611</v>
       </c>
       <c r="B11" t="n">
-        <v>117.543896211415</v>
+        <v>104.67837693562</v>
       </c>
       <c r="C11" t="n">
-        <v>119.261130669653</v>
+        <v>88.43122355779759</v>
       </c>
       <c r="D11" t="n">
-        <v>84.04398405421129</v>
+        <v>86.9154965556516</v>
       </c>
       <c r="E11" t="n">
-        <v>71.1104905587416</v>
+        <v>94.60878600309751</v>
       </c>
       <c r="F11" t="n">
-        <v>78.0631384249177</v>
+        <v>95.6433184768804</v>
       </c>
       <c r="G11" t="n">
-        <v>76.8421319692862</v>
+        <v>94.5147860961077</v>
       </c>
       <c r="H11" t="n">
-        <v>86.31671072834141</v>
+        <v>133.300457362705</v>
       </c>
       <c r="I11" t="n">
-        <v>98.6238890203208</v>
+        <v>102.160015980062</v>
       </c>
       <c r="J11" t="n">
-        <v>138.628628729404</v>
+        <v>138.443319466398</v>
       </c>
       <c r="M11" t="n">
-        <v>101.0072390023564</v>
+        <v>109.7709313140692</v>
       </c>
       <c r="N11" t="n">
-        <v>23.67401192348984</v>
+        <v>23.18256190680494</v>
       </c>
     </row>
   </sheetData>
@@ -889,702 +892,702 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="n">
-        <v>114.061806335318</v>
+        <v>109.685272706787</v>
       </c>
       <c r="B2" t="n">
-        <v>96.11797706818309</v>
+        <v>112.84046579721</v>
       </c>
       <c r="C2" t="n">
-        <v>98.09292206537</v>
+        <v>82.65932130753509</v>
       </c>
       <c r="D2" t="n">
-        <v>80.6953258203832</v>
+        <v>103.330151083921</v>
       </c>
       <c r="E2" t="n">
-        <v>123.124150584998</v>
+        <v>72.3404149764048</v>
       </c>
       <c r="F2" t="n">
-        <v>101.195889686134</v>
+        <v>143.537855515252</v>
       </c>
       <c r="G2" t="n">
-        <v>90.19668821508699</v>
+        <v>106.579151916622</v>
       </c>
       <c r="H2" t="n">
-        <v>93.01487575318031</v>
+        <v>105.362557873188</v>
       </c>
       <c r="I2" t="n">
-        <v>87.1437333002803</v>
+        <v>63.4964914061943</v>
       </c>
       <c r="J2" t="n">
-        <v>73.66598979051059</v>
+        <v>79.25338435948539</v>
       </c>
       <c r="M2" t="n">
-        <v>103.2274034455552</v>
+        <v>103.4819229685546</v>
       </c>
       <c r="N2" t="n">
-        <v>20.95376889525421</v>
+        <v>22.26085335445132</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="n">
-        <v>143.537855515252</v>
+        <v>121.934339003526</v>
       </c>
       <c r="B3" t="n">
-        <v>102.781846964621</v>
+        <v>95.0834553988455</v>
       </c>
       <c r="C3" t="n">
-        <v>125.791495989353</v>
+        <v>79.9357773271168</v>
       </c>
       <c r="D3" t="n">
-        <v>56.7263960267725</v>
+        <v>145.300505864875</v>
       </c>
       <c r="E3" t="n">
-        <v>154.239137895335</v>
+        <v>129.539711571983</v>
       </c>
       <c r="F3" t="n">
-        <v>70.797325603882</v>
+        <v>109.685272706787</v>
       </c>
       <c r="G3" t="n">
-        <v>59.6368116219104</v>
+        <v>131.96202233974</v>
       </c>
       <c r="H3" t="n">
-        <v>95.55214178603249</v>
+        <v>127.3499995083</v>
       </c>
       <c r="I3" t="n">
-        <v>87.1734441003008</v>
+        <v>81.6073782935228</v>
       </c>
       <c r="J3" t="n">
-        <v>81.5156097929501</v>
+        <v>71.8520368689823</v>
       </c>
       <c r="M3" t="n">
-        <v>101.3309416838227</v>
+        <v>90.21450859581232</v>
       </c>
       <c r="N3" t="n">
-        <v>20.2452698927453</v>
+        <v>20.8659801399396</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="n">
-        <v>132.82218963638</v>
+        <v>96.5825304925003</v>
       </c>
       <c r="B4" t="n">
-        <v>90.8230354891367</v>
+        <v>71.1104905587416</v>
       </c>
       <c r="C4" t="n">
-        <v>102.948351061575</v>
+        <v>108.390913486872</v>
       </c>
       <c r="D4" t="n">
-        <v>114.862491682618</v>
+        <v>69.84019385146</v>
       </c>
       <c r="E4" t="n">
-        <v>88.4407615382471</v>
+        <v>99.9109109316161</v>
       </c>
       <c r="F4" t="n">
-        <v>86.1260088679152</v>
+        <v>96.98682394452609</v>
       </c>
       <c r="G4" t="n">
-        <v>63.2782296341011</v>
+        <v>82.45011221675691</v>
       </c>
       <c r="H4" t="n">
-        <v>123.69552396842</v>
+        <v>72.30548204805881</v>
       </c>
       <c r="I4" t="n">
-        <v>118.957266350648</v>
+        <v>77.3833291136748</v>
       </c>
       <c r="J4" t="n">
-        <v>135.076527651533</v>
+        <v>98.42391232666731</v>
       </c>
       <c r="M4" t="n">
-        <v>106.0009074939992</v>
+        <v>93.81278975984125</v>
       </c>
       <c r="N4" t="n">
-        <v>15.31031614363242</v>
+        <v>14.49873682458914</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="n">
-        <v>91.95559011276499</v>
+        <v>99.62441697828569</v>
       </c>
       <c r="B5" t="n">
-        <v>66.7705327879619</v>
+        <v>98.38779427970449</v>
       </c>
       <c r="C5" t="n">
-        <v>103.246173502391</v>
+        <v>79.9333897374695</v>
       </c>
       <c r="D5" t="n">
-        <v>81.8042766465021</v>
+        <v>131.96202233974</v>
       </c>
       <c r="E5" t="n">
-        <v>95.7035812381055</v>
+        <v>89.40082904308581</v>
       </c>
       <c r="F5" t="n">
-        <v>107.059143871023</v>
+        <v>102.429491792484</v>
       </c>
       <c r="G5" t="n">
-        <v>122.345877222426</v>
+        <v>103.399291361968</v>
       </c>
       <c r="H5" t="n">
-        <v>86.31671072834141</v>
+        <v>101.181257828749</v>
       </c>
       <c r="I5" t="n">
-        <v>105.918601923032</v>
+        <v>110.315553458508</v>
       </c>
       <c r="J5" t="n">
-        <v>120.10198815314</v>
+        <v>96.7880589427875</v>
       </c>
       <c r="M5" t="n">
-        <v>102.4535705746429</v>
+        <v>107.8884699838356</v>
       </c>
       <c r="N5" t="n">
-        <v>22.85464241440965</v>
+        <v>21.19009049999625</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="n">
-        <v>87.167868456996</v>
+        <v>102.978956785878</v>
       </c>
       <c r="B6" t="n">
-        <v>89.3592852355073</v>
+        <v>91.87035113138769</v>
       </c>
       <c r="C6" t="n">
-        <v>94.81922320445381</v>
+        <v>80.80097228934299</v>
       </c>
       <c r="D6" t="n">
-        <v>123.352898294027</v>
+        <v>113.937054397167</v>
       </c>
       <c r="E6" t="n">
-        <v>105.478070760795</v>
+        <v>78.5974361706492</v>
       </c>
       <c r="F6" t="n">
-        <v>86.7942574394811</v>
+        <v>112.34529473504</v>
       </c>
       <c r="G6" t="n">
-        <v>116.339071134239</v>
+        <v>131.438790327161</v>
       </c>
       <c r="H6" t="n">
-        <v>130.434964302038</v>
+        <v>79.6192537336424</v>
       </c>
       <c r="I6" t="n">
-        <v>113.832909589636</v>
+        <v>72.3185763908089</v>
       </c>
       <c r="J6" t="n">
-        <v>99.62441697828569</v>
+        <v>86.619238031316</v>
       </c>
       <c r="M6" t="n">
-        <v>101.8139854092956</v>
+        <v>104.733134468384</v>
       </c>
       <c r="N6" t="n">
-        <v>21.33132782197745</v>
+        <v>17.6278947247468</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="n">
-        <v>131.055049142915</v>
+        <v>130.434964302038</v>
       </c>
       <c r="B7" t="n">
-        <v>104.401500567048</v>
+        <v>82.1802061843124</v>
       </c>
       <c r="C7" t="n">
-        <v>108.501095605583</v>
+        <v>117.133691045252</v>
       </c>
       <c r="D7" t="n">
-        <v>72.5960692493703</v>
+        <v>114.34798428742</v>
       </c>
       <c r="E7" t="n">
-        <v>99.3003473726741</v>
+        <v>84.1386690243762</v>
       </c>
       <c r="F7" t="n">
-        <v>99.2933510214762</v>
+        <v>84.04398405421129</v>
       </c>
       <c r="G7" t="n">
-        <v>91.87035113138769</v>
+        <v>112.131724608374</v>
       </c>
       <c r="H7" t="n">
-        <v>89.022237920965</v>
+        <v>49.8427283695054</v>
       </c>
       <c r="I7" t="n">
-        <v>118.036269932785</v>
+        <v>71.27389669651819</v>
       </c>
       <c r="J7" t="n">
-        <v>145.300505864875</v>
+        <v>109.753789677891</v>
       </c>
       <c r="M7" t="n">
-        <v>101.4393512808588</v>
+        <v>97.57854180682145</v>
       </c>
       <c r="N7" t="n">
-        <v>21.99791503912838</v>
+        <v>23.31376272136532</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="n">
-        <v>114.727798497105</v>
+        <v>100.756287576668</v>
       </c>
       <c r="B8" t="n">
-        <v>109.910750107961</v>
+        <v>56.7263960267725</v>
       </c>
       <c r="C8" t="n">
-        <v>109.815858026725</v>
+        <v>87.90638550562529</v>
       </c>
       <c r="D8" t="n">
-        <v>77.0694618831933</v>
+        <v>76.8573294624322</v>
       </c>
       <c r="E8" t="n">
-        <v>102.622604436166</v>
+        <v>125.206941966994</v>
       </c>
       <c r="F8" t="n">
-        <v>77.10793056621399</v>
+        <v>84.0211705581909</v>
       </c>
       <c r="G8" t="n">
-        <v>90.5525508734675</v>
+        <v>108.081969974353</v>
       </c>
       <c r="H8" t="n">
-        <v>92.2943792116118</v>
+        <v>131.329703237013</v>
       </c>
       <c r="I8" t="n">
-        <v>67.3282608678565</v>
+        <v>103.575376410579</v>
       </c>
       <c r="J8" t="n">
-        <v>75.25349845822539</v>
+        <v>81.8796290397694</v>
       </c>
       <c r="M8" t="n">
-        <v>98.46688970563928</v>
+        <v>106.3578844785461</v>
       </c>
       <c r="N8" t="n">
-        <v>19.94811471919547</v>
+        <v>16.88227998630371</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="n">
-        <v>107.540753197393</v>
+        <v>83.8997891017368</v>
       </c>
       <c r="B9" t="n">
-        <v>65.7103050217604</v>
+        <v>81.7360124314487</v>
       </c>
       <c r="C9" t="n">
-        <v>144.458102055705</v>
+        <v>70.836067030601</v>
       </c>
       <c r="D9" t="n">
-        <v>139.510685938072</v>
+        <v>93.260567691265</v>
       </c>
       <c r="E9" t="n">
-        <v>137.553109346779</v>
+        <v>82.45011221675691</v>
       </c>
       <c r="F9" t="n">
-        <v>94.3000113801253</v>
+        <v>112.316970104463</v>
       </c>
       <c r="G9" t="n">
-        <v>118.907106314807</v>
+        <v>123.316863154065</v>
       </c>
       <c r="H9" t="n">
-        <v>109.643959951259</v>
+        <v>74.132943373315</v>
       </c>
       <c r="I9" t="n">
-        <v>112.970067238534</v>
+        <v>159.277016217243</v>
       </c>
       <c r="J9" t="n">
-        <v>56.3536743982222</v>
+        <v>130.434964302038</v>
       </c>
       <c r="M9" t="n">
-        <v>104.3507089984051</v>
+        <v>96.29921064068338</v>
       </c>
       <c r="N9" t="n">
-        <v>17.27010133148125</v>
+        <v>24.98092248484847</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="n">
-        <v>110.938110965641</v>
+        <v>120.913435991714</v>
       </c>
       <c r="B10" t="n">
-        <v>122.254159223223</v>
+        <v>92.2966930851768</v>
       </c>
       <c r="C10" t="n">
-        <v>98.31788259308109</v>
+        <v>89.7687158272665</v>
       </c>
       <c r="D10" t="n">
-        <v>123.724369717283</v>
+        <v>117.628303127307</v>
       </c>
       <c r="E10" t="n">
-        <v>91.551485521933</v>
+        <v>98.1332366469797</v>
       </c>
       <c r="F10" t="n">
-        <v>131.055049142915</v>
+        <v>67.5694377915171</v>
       </c>
       <c r="G10" t="n">
-        <v>108.452433661087</v>
+        <v>135.076527651533</v>
       </c>
       <c r="H10" t="n">
-        <v>83.9116344663161</v>
+        <v>94.6278238938305</v>
       </c>
       <c r="I10" t="n">
-        <v>56.9427179163874</v>
+        <v>107.109962251814</v>
       </c>
       <c r="J10" t="n">
-        <v>20.0825495542905</v>
+        <v>72.3185763908089</v>
       </c>
       <c r="M10" t="n">
-        <v>95.7787030953038</v>
+        <v>90.62361145096355</v>
       </c>
       <c r="N10" t="n">
-        <v>19.83952133773918</v>
+        <v>29.10165169931468</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="n">
-        <v>86.13841618634331</v>
+        <v>94.4344083747811</v>
       </c>
       <c r="B11" t="n">
-        <v>126.633821424281</v>
+        <v>119.333001228199</v>
       </c>
       <c r="C11" t="n">
-        <v>126.633821424281</v>
+        <v>116.877518444484</v>
       </c>
       <c r="D11" t="n">
-        <v>83.9318024919793</v>
+        <v>97.03493842570521</v>
       </c>
       <c r="E11" t="n">
-        <v>97.22787786167591</v>
+        <v>114.727798497105</v>
       </c>
       <c r="F11" t="n">
-        <v>92.36829048992909</v>
+        <v>120.674698689802</v>
       </c>
       <c r="G11" t="n">
-        <v>98.86377960368699</v>
+        <v>98.8691169591156</v>
       </c>
       <c r="H11" t="n">
-        <v>123.493149022395</v>
+        <v>99.11091051288579</v>
       </c>
       <c r="I11" t="n">
-        <v>77.4210050766919</v>
+        <v>100.371511559538</v>
       </c>
       <c r="J11" t="n">
-        <v>111.834569625483</v>
+        <v>104.157865205203</v>
       </c>
       <c r="M11" t="n">
-        <v>98.23971591747843</v>
+        <v>98.25047102520692</v>
       </c>
       <c r="N11" t="n">
-        <v>30.97653402749841</v>
+        <v>17.15056354475521</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="n">
-        <v>72.3404149764048</v>
+        <v>90.11076022325381</v>
       </c>
       <c r="B12" t="n">
-        <v>114.331384078815</v>
+        <v>77.0694618831933</v>
       </c>
       <c r="C12" t="n">
-        <v>105.49282327551</v>
+        <v>109.773410513137</v>
       </c>
       <c r="D12" t="n">
-        <v>104.020518115159</v>
+        <v>117.001475071913</v>
       </c>
       <c r="E12" t="n">
-        <v>72.6122988181595</v>
+        <v>110.730330645085</v>
       </c>
       <c r="F12" t="n">
-        <v>92.78116265561169</v>
+        <v>83.9116344663161</v>
       </c>
       <c r="G12" t="n">
-        <v>110.784442196858</v>
+        <v>95.9094057476821</v>
       </c>
       <c r="H12" t="n">
-        <v>83.3808588133855</v>
+        <v>97.4529847404397</v>
       </c>
       <c r="I12" t="n">
-        <v>102.031998042878</v>
+        <v>50.1869156397563</v>
       </c>
       <c r="J12" t="n">
-        <v>115.163454799811</v>
+        <v>127.517030747644</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="n">
-        <v>112.472210748565</v>
+        <v>133.300457362705</v>
       </c>
       <c r="B13" t="n">
-        <v>101.666163392934</v>
+        <v>126.041967978569</v>
       </c>
       <c r="C13" t="n">
-        <v>112.370608578525</v>
+        <v>78.4173565703926</v>
       </c>
       <c r="D13" t="n">
-        <v>87.2167692539343</v>
+        <v>118.05661780219</v>
       </c>
       <c r="E13" t="n">
-        <v>117.663330868376</v>
+        <v>101.724291661116</v>
       </c>
       <c r="F13" t="n">
-        <v>114.080217720838</v>
+        <v>92.2143628002495</v>
       </c>
       <c r="G13" t="n">
-        <v>70.836067030601</v>
+        <v>104.689998859391</v>
       </c>
       <c r="H13" t="n">
-        <v>124.477786044172</v>
+        <v>120.792886795325</v>
       </c>
       <c r="I13" t="n">
-        <v>95.0889701917022</v>
+        <v>97.4068146299001</v>
       </c>
       <c r="J13" t="n">
-        <v>83.94000829482491</v>
+        <v>99.62441697828569</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="n">
-        <v>125.206941966994</v>
+        <v>90.3094204979177</v>
       </c>
       <c r="B14" t="n">
-        <v>94.60878600309751</v>
+        <v>57.9855234858293</v>
       </c>
       <c r="C14" t="n">
-        <v>83.86145690228</v>
+        <v>96.7119989530987</v>
       </c>
       <c r="D14" t="n">
-        <v>114.080217720838</v>
+        <v>77.32736858911019</v>
       </c>
       <c r="E14" t="n">
-        <v>87.091040197526</v>
+        <v>118.546813005314</v>
       </c>
       <c r="F14" t="n">
-        <v>109.668350273633</v>
+        <v>69.84019385146</v>
       </c>
       <c r="G14" t="n">
-        <v>135.713288724195</v>
+        <v>77.32736858911019</v>
       </c>
       <c r="H14" t="n">
-        <v>141.844711702953</v>
+        <v>57.7379595572844</v>
       </c>
       <c r="I14" t="n">
-        <v>77.7316761371236</v>
+        <v>134.013083014364</v>
       </c>
       <c r="J14" t="n">
-        <v>124.477786044172</v>
+        <v>102.556082633353</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="n">
-        <v>69.288937865291</v>
+        <v>148.142999564099</v>
       </c>
       <c r="B15" t="n">
-        <v>112.287290181623</v>
+        <v>100.083891460338</v>
       </c>
       <c r="C15" t="n">
-        <v>102.160015980062</v>
+        <v>91.551485521933</v>
       </c>
       <c r="D15" t="n">
-        <v>131.383207513496</v>
+        <v>131.329703237013</v>
       </c>
       <c r="E15" t="n">
-        <v>122.719137501055</v>
+        <v>131.329703237013</v>
       </c>
       <c r="F15" t="n">
-        <v>99.5724871964746</v>
+        <v>104.020518115159</v>
       </c>
       <c r="G15" t="n">
-        <v>83.9707197596672</v>
+        <v>79.9357773271168</v>
       </c>
       <c r="H15" t="n">
-        <v>117.19320749604</v>
+        <v>113.979383418544</v>
       </c>
       <c r="I15" t="n">
-        <v>84.0211705581909</v>
+        <v>23.5411312142934</v>
       </c>
       <c r="J15" t="n">
-        <v>111.525290255445</v>
+        <v>120.024808022455</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="n">
-        <v>99.1217062316457</v>
+        <v>57.7379595572844</v>
       </c>
       <c r="B16" t="n">
-        <v>83.6984360597674</v>
+        <v>92.4720468229399</v>
       </c>
       <c r="C16" t="n">
-        <v>90.9237693501252</v>
+        <v>101.963797146659</v>
       </c>
       <c r="D16" t="n">
-        <v>108.776220284356</v>
+        <v>127.563245770125</v>
       </c>
       <c r="E16" t="n">
-        <v>67.6607734124204</v>
+        <v>121.297846074247</v>
       </c>
       <c r="F16" t="n">
-        <v>133.506247080469</v>
+        <v>56.8735787239639</v>
       </c>
       <c r="G16" t="n">
-        <v>105.899315129141</v>
+        <v>100.001361682377</v>
       </c>
       <c r="H16" t="n">
-        <v>95.0834553988455</v>
+        <v>83.84771967115439</v>
       </c>
       <c r="I16" t="n">
-        <v>88.4776252011866</v>
+        <v>90.11076022325381</v>
       </c>
       <c r="J16" t="n">
-        <v>108.131202433963</v>
+        <v>98.52168600159339</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="n">
-        <v>73.0416629418992</v>
+        <v>100.422966627155</v>
       </c>
       <c r="B17" t="n">
-        <v>99.2933510214762</v>
+        <v>85.654535662106</v>
       </c>
       <c r="C17" t="n">
-        <v>120.537217709908</v>
+        <v>105.689216033181</v>
       </c>
       <c r="D17" t="n">
-        <v>91.61324174039051</v>
+        <v>104.949618188699</v>
       </c>
       <c r="E17" t="n">
-        <v>86.619238031316</v>
+        <v>101.518646858568</v>
       </c>
       <c r="F17" t="n">
-        <v>139.920609458107</v>
+        <v>108.368385576576</v>
       </c>
       <c r="G17" t="n">
-        <v>104.965353979726</v>
+        <v>87.9797454301636</v>
       </c>
       <c r="H17" t="n">
-        <v>98.52168600159339</v>
+        <v>126.633821424281</v>
       </c>
       <c r="I17" t="n">
-        <v>138.666907302361</v>
+        <v>103.399291361968</v>
       </c>
       <c r="J17" t="n">
-        <v>129.383912001855</v>
+        <v>112.915423930302</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="n">
-        <v>82.1048970775034</v>
+        <v>81.6073782935228</v>
       </c>
       <c r="B18" t="n">
-        <v>108.213539829659</v>
+        <v>105.26707162491</v>
       </c>
       <c r="C18" t="n">
-        <v>101.195889686134</v>
+        <v>105.081676122147</v>
       </c>
       <c r="D18" t="n">
-        <v>122.299386771495</v>
+        <v>123.352898294027</v>
       </c>
       <c r="E18" t="n">
-        <v>84.97348741589489</v>
+        <v>91.87035113138769</v>
       </c>
       <c r="F18" t="n">
-        <v>102.031998042878</v>
+        <v>123.198735867911</v>
       </c>
       <c r="G18" t="n">
-        <v>114.862491682618</v>
+        <v>117.629819324523</v>
       </c>
       <c r="H18" t="n">
-        <v>113.748134275366</v>
+        <v>81.8796290397694</v>
       </c>
       <c r="I18" t="n">
-        <v>89.65915318288729</v>
+        <v>90.00221622139721</v>
       </c>
       <c r="J18" t="n">
-        <v>109.668350273633</v>
+        <v>79.3611301559219</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="n">
-        <v>100.748830925226</v>
+        <v>96.7883337887199</v>
       </c>
       <c r="B19" t="n">
-        <v>154.239137895335</v>
+        <v>98.09292206537</v>
       </c>
       <c r="C19" t="n">
-        <v>78.0631384249177</v>
+        <v>90.9237693501252</v>
       </c>
       <c r="D19" t="n">
         <v>98.8182905267664</v>
       </c>
       <c r="E19" t="n">
-        <v>90.5174032942228</v>
+        <v>105.020147321501</v>
       </c>
       <c r="F19" t="n">
-        <v>119.720943871803</v>
+        <v>118.81019249358</v>
       </c>
       <c r="G19" t="n">
-        <v>83.9116344663161</v>
+        <v>101.131993677025</v>
       </c>
       <c r="H19" t="n">
-        <v>97.1140160699516</v>
+        <v>72.53442724719559</v>
       </c>
       <c r="I19" t="n">
-        <v>81.8739565571769</v>
+        <v>76.2300557850081</v>
       </c>
       <c r="J19" t="n">
-        <v>122.954191793234</v>
+        <v>105.382937046117</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="n">
-        <v>105.49282327551</v>
+        <v>133.31382850837</v>
       </c>
       <c r="B20" t="n">
-        <v>101.781518892614</v>
+        <v>112.259304757618</v>
       </c>
       <c r="C20" t="n">
-        <v>99.8832737601241</v>
+        <v>73.87521107049849</v>
       </c>
       <c r="D20" t="n">
-        <v>131.805576960266</v>
+        <v>75.2345741057845</v>
       </c>
       <c r="E20" t="n">
-        <v>115.787813215017</v>
+        <v>116.957662778988</v>
       </c>
       <c r="F20" t="n">
-        <v>121.22083560851</v>
+        <v>105.93744331271</v>
       </c>
       <c r="G20" t="n">
-        <v>107.386631290566</v>
+        <v>111.200173234735</v>
       </c>
       <c r="H20" t="n">
-        <v>95.51107919052561</v>
+        <v>97.59583323882499</v>
       </c>
       <c r="I20" t="n">
-        <v>99.97728900203251</v>
+        <v>92.4720468229399</v>
       </c>
       <c r="J20" t="n">
-        <v>71.27389669651819</v>
+        <v>82.9344509841269</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="n">
-        <v>104.784204855956</v>
+        <v>76.6599536341496</v>
       </c>
       <c r="B21" t="n">
-        <v>81.7360124314487</v>
+        <v>47.7985800535743</v>
       </c>
       <c r="C21" t="n">
-        <v>112.905030683879</v>
+        <v>108.025121914088</v>
       </c>
       <c r="D21" t="n">
-        <v>104.784204855956</v>
+        <v>120.636557559791</v>
       </c>
       <c r="E21" t="n">
-        <v>95.39405887521561</v>
+        <v>121.22083560851</v>
       </c>
       <c r="F21" t="n">
-        <v>50.1869156397563</v>
+        <v>54.7847910362301</v>
       </c>
       <c r="G21" t="n">
-        <v>90.5649504408977</v>
+        <v>118.04647518911</v>
       </c>
       <c r="H21" t="n">
-        <v>92.75966786471049</v>
+        <v>138.666907302361</v>
       </c>
       <c r="I21" t="n">
-        <v>112.321039434385</v>
+        <v>108.380822307989</v>
       </c>
       <c r="J21" t="n">
-        <v>69.466895488597</v>
+        <v>104.689998859391</v>
       </c>
     </row>
   </sheetData>
@@ -1646,1022 +1649,1022 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="n">
+        <v>108.935552972673</v>
+      </c>
+      <c r="B2" t="n">
+        <v>82.3661267840812</v>
+      </c>
+      <c r="C2" t="n">
+        <v>63.9433399824339</v>
+      </c>
+      <c r="D2" t="n">
+        <v>142.222542576026</v>
+      </c>
+      <c r="E2" t="n">
         <v>90.4751794345173</v>
       </c>
-      <c r="B2" t="n">
-        <v>57.9855234858293</v>
-      </c>
-      <c r="C2" t="n">
-        <v>109.815858026725</v>
-      </c>
-      <c r="D2" t="n">
-        <v>112.472210748565</v>
-      </c>
-      <c r="E2" t="n">
-        <v>91.52100860689281</v>
-      </c>
       <c r="F2" t="n">
-        <v>93.7384364984979</v>
+        <v>89.5333816586833</v>
       </c>
       <c r="G2" t="n">
-        <v>87.90638550562529</v>
+        <v>80.8145113087877</v>
       </c>
       <c r="H2" t="n">
-        <v>117.457067372944</v>
+        <v>76.15127318564321</v>
       </c>
       <c r="I2" t="n">
-        <v>120.10198815314</v>
+        <v>101.342672443176</v>
       </c>
       <c r="J2" t="n">
-        <v>119.510558692758</v>
+        <v>79.0334553016766</v>
       </c>
       <c r="M2" t="n">
-        <v>95.96209037410834</v>
+        <v>96.35926071359586</v>
       </c>
       <c r="N2" t="n">
-        <v>18.26143178618893</v>
+        <v>24.5297880473566</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="n">
-        <v>83.0695545218119</v>
+        <v>76.6599536341496</v>
       </c>
       <c r="B3" t="n">
-        <v>69.288937865291</v>
+        <v>77.32736858911019</v>
       </c>
       <c r="C3" t="n">
-        <v>122.954191793234</v>
+        <v>87.1437333002803</v>
       </c>
       <c r="D3" t="n">
-        <v>105.639445213274</v>
+        <v>90.4751794345173</v>
       </c>
       <c r="E3" t="n">
-        <v>108.667009802108</v>
+        <v>85.9819463969751</v>
       </c>
       <c r="F3" t="n">
-        <v>120.494722921553</v>
+        <v>154.432697846321</v>
       </c>
       <c r="G3" t="n">
-        <v>67.9981732724972</v>
+        <v>98.6357304551902</v>
       </c>
       <c r="H3" t="n">
-        <v>110.587906108166</v>
+        <v>73.87521107049849</v>
       </c>
       <c r="I3" t="n">
-        <v>92.4720468229399</v>
+        <v>131.438790327161</v>
       </c>
       <c r="J3" t="n">
-        <v>104.096266646131</v>
+        <v>94.5147860961077</v>
       </c>
       <c r="M3" t="n">
-        <v>99.06620953865435</v>
+        <v>96.52348188049025</v>
       </c>
       <c r="N3" t="n">
-        <v>24.32973917080149</v>
+        <v>23.86057059066003</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="n">
-        <v>86.4430330989742</v>
+        <v>89.3592852355073</v>
       </c>
       <c r="B4" t="n">
-        <v>67.6607734124204</v>
+        <v>85.476095771998</v>
       </c>
       <c r="C4" t="n">
-        <v>103.649810847768</v>
+        <v>70.797325603882</v>
       </c>
       <c r="D4" t="n">
-        <v>120.10198815314</v>
+        <v>107.6856777148</v>
       </c>
       <c r="E4" t="n">
-        <v>159.277016217243</v>
+        <v>74.6290575254139</v>
       </c>
       <c r="F4" t="n">
-        <v>57.7379595572844</v>
+        <v>113.233094405685</v>
       </c>
       <c r="G4" t="n">
-        <v>159.277016217243</v>
+        <v>104.220691661331</v>
       </c>
       <c r="H4" t="n">
-        <v>79.8373939019649</v>
+        <v>94.8982101455619</v>
       </c>
       <c r="I4" t="n">
-        <v>81.5156097929501</v>
+        <v>88.4407615382471</v>
       </c>
       <c r="J4" t="n">
-        <v>117.507541345061</v>
+        <v>93.4410786362246</v>
       </c>
       <c r="M4" t="n">
-        <v>97.04181363461366</v>
+        <v>93.87854458223551</v>
       </c>
       <c r="N4" t="n">
-        <v>17.81927938349844</v>
+        <v>19.72181484105942</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="n">
-        <v>90.9237693501252</v>
+        <v>74.132943373315</v>
       </c>
       <c r="B5" t="n">
-        <v>119.333001228199</v>
+        <v>108.380822307989</v>
       </c>
       <c r="C5" t="n">
-        <v>79.9357773271168</v>
+        <v>105.020147321501</v>
       </c>
       <c r="D5" t="n">
-        <v>95.4402784939753</v>
+        <v>82.2780577877749</v>
       </c>
       <c r="E5" t="n">
-        <v>120.73087316834</v>
+        <v>136.742412768047</v>
       </c>
       <c r="F5" t="n">
-        <v>72.7246698579667</v>
+        <v>65.4449823688804</v>
       </c>
       <c r="G5" t="n">
-        <v>140.224753363313</v>
+        <v>125.554049853136</v>
       </c>
       <c r="H5" t="n">
-        <v>119.385124895474</v>
+        <v>80.8145113087877</v>
       </c>
       <c r="I5" t="n">
-        <v>85.7532246417701</v>
+        <v>93.8468206670705</v>
       </c>
       <c r="J5" t="n">
-        <v>90.9640742315576</v>
+        <v>95.3555632117136</v>
       </c>
       <c r="M5" t="n">
-        <v>98.69784562480656</v>
+        <v>99.54213603709539</v>
       </c>
       <c r="N5" t="n">
-        <v>22.3826371344445</v>
+        <v>20.887816890707</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="n">
-        <v>90.7160233396842</v>
+        <v>87.167868456996</v>
       </c>
       <c r="B6" t="n">
-        <v>93.8468206670705</v>
+        <v>93.01487575318031</v>
       </c>
       <c r="C6" t="n">
-        <v>83.0938166144665</v>
+        <v>94.4054069863448</v>
       </c>
       <c r="D6" t="n">
-        <v>96.0052425942681</v>
+        <v>154.239137895335</v>
       </c>
       <c r="E6" t="n">
-        <v>99.96981757641289</v>
+        <v>121.233537326496</v>
       </c>
       <c r="F6" t="n">
-        <v>20.0825495542905</v>
+        <v>139.978652403396</v>
       </c>
       <c r="G6" t="n">
-        <v>80.42209754038301</v>
+        <v>129.539711571983</v>
       </c>
       <c r="H6" t="n">
-        <v>110.344034610054</v>
+        <v>63.9433399824339</v>
       </c>
       <c r="I6" t="n">
-        <v>53.674307380248</v>
+        <v>154.432697846321</v>
       </c>
       <c r="J6" t="n">
-        <v>87.3553910759364</v>
+        <v>79.6536935321333</v>
       </c>
       <c r="M6" t="n">
-        <v>107.650895044553</v>
+        <v>102.963866928946</v>
       </c>
       <c r="N6" t="n">
-        <v>21.61349910943879</v>
+        <v>21.18468730410386</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="n">
-        <v>72.246600269933</v>
+        <v>130.3384549928</v>
       </c>
       <c r="B7" t="n">
-        <v>76.2300557850081</v>
+        <v>130.403572587724</v>
       </c>
       <c r="C7" t="n">
-        <v>97.65379265299821</v>
+        <v>123.064966084581</v>
       </c>
       <c r="D7" t="n">
-        <v>78.0631384249177</v>
+        <v>77.32736858911019</v>
       </c>
       <c r="E7" t="n">
-        <v>131.438790327161</v>
+        <v>119.80773607755</v>
       </c>
       <c r="F7" t="n">
-        <v>131.383207513496</v>
+        <v>104.401500567048</v>
       </c>
       <c r="G7" t="n">
-        <v>120.494722921553</v>
+        <v>118.02493341547</v>
       </c>
       <c r="H7" t="n">
-        <v>107.854172470889</v>
+        <v>108.368385576576</v>
       </c>
       <c r="I7" t="n">
-        <v>138.628628729404</v>
+        <v>90.8230354891367</v>
       </c>
       <c r="J7" t="n">
-        <v>110.36989210853</v>
+        <v>98.8182905267664</v>
       </c>
       <c r="M7" t="n">
-        <v>101.4716623230995</v>
+        <v>103.5612003585604</v>
       </c>
       <c r="N7" t="n">
-        <v>25.47185539819365</v>
+        <v>22.55307294792258</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="n">
-        <v>71.27389669651819</v>
+        <v>130.475925142712</v>
       </c>
       <c r="B8" t="n">
-        <v>80.3653163552755</v>
+        <v>80.0189859363913</v>
       </c>
       <c r="C8" t="n">
-        <v>88.7115221985173</v>
+        <v>117.034240562271</v>
       </c>
       <c r="D8" t="n">
-        <v>81.8739565571769</v>
+        <v>63.9433399824339</v>
       </c>
       <c r="E8" t="n">
-        <v>113.754524285599</v>
+        <v>84.237882479373</v>
       </c>
       <c r="F8" t="n">
-        <v>82.95317339434369</v>
+        <v>107.77731869603</v>
       </c>
       <c r="G8" t="n">
-        <v>86.94022038209501</v>
+        <v>79.6295613635388</v>
       </c>
       <c r="H8" t="n">
-        <v>84.597044032406</v>
+        <v>79.3611301559219</v>
       </c>
       <c r="I8" t="n">
-        <v>63.2782296341011</v>
+        <v>115.787813215017</v>
       </c>
       <c r="J8" t="n">
-        <v>77.10793056621399</v>
+        <v>130.434964302038</v>
       </c>
       <c r="M8" t="n">
-        <v>97.02773095862921</v>
+        <v>102.7890675858097</v>
       </c>
       <c r="N8" t="n">
-        <v>25.41543365199527</v>
+        <v>20.27886790605529</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="n">
-        <v>89.022237920965</v>
+        <v>92.4720468229399</v>
       </c>
       <c r="B9" t="n">
-        <v>105.515303659617</v>
+        <v>148.366249863066</v>
       </c>
       <c r="C9" t="n">
-        <v>107.157389575707</v>
+        <v>73.66560789042281</v>
       </c>
       <c r="D9" t="n">
-        <v>123.352898294027</v>
+        <v>122.695815151111</v>
       </c>
       <c r="E9" t="n">
-        <v>108.881232957743</v>
+        <v>94.5048477647823</v>
       </c>
       <c r="F9" t="n">
-        <v>123.064966084581</v>
+        <v>74.5298873046693</v>
       </c>
       <c r="G9" t="n">
-        <v>85.81543858806531</v>
+        <v>117.295112846294</v>
       </c>
       <c r="H9" t="n">
-        <v>95.51107919052561</v>
+        <v>133.160829073397</v>
       </c>
       <c r="I9" t="n">
-        <v>87.7761992412463</v>
+        <v>90.4751794345173</v>
       </c>
       <c r="J9" t="n">
-        <v>49.6112258458579</v>
+        <v>109.989971517044</v>
       </c>
       <c r="M9" t="n">
-        <v>99.43817380513111</v>
+        <v>96.93626492521022</v>
       </c>
       <c r="N9" t="n">
-        <v>18.01640385097333</v>
+        <v>22.02001887203706</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="n">
-        <v>66.7647154621036</v>
+        <v>97.22787786167591</v>
       </c>
       <c r="B10" t="n">
-        <v>99.11091051288579</v>
+        <v>78.4173565703926</v>
       </c>
       <c r="C10" t="n">
-        <v>88.686765596184</v>
+        <v>76.15127318564321</v>
       </c>
       <c r="D10" t="n">
-        <v>76.2300557850081</v>
+        <v>76.8421319692862</v>
       </c>
       <c r="E10" t="n">
-        <v>84.4229509767399</v>
+        <v>116.936601751445</v>
       </c>
       <c r="F10" t="n">
-        <v>79.8373939019649</v>
+        <v>89.3457975117738</v>
       </c>
       <c r="G10" t="n">
-        <v>82.2713013904788</v>
+        <v>148.142999564099</v>
       </c>
       <c r="H10" t="n">
-        <v>97.4529847404397</v>
+        <v>135.076527651533</v>
       </c>
       <c r="I10" t="n">
-        <v>56.9427179163874</v>
+        <v>131.055049142915</v>
       </c>
       <c r="J10" t="n">
-        <v>120.314739406153</v>
+        <v>98.6238890203208</v>
       </c>
       <c r="M10" t="n">
-        <v>96.60445329585251</v>
+        <v>103.4659836944802</v>
       </c>
       <c r="N10" t="n">
-        <v>22.82497754319377</v>
+        <v>21.99091838158985</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="n">
-        <v>112.595636673963</v>
+        <v>62.1296784692623</v>
       </c>
       <c r="B11" t="n">
-        <v>95.4043293168929</v>
+        <v>93.260567691265</v>
       </c>
       <c r="C11" t="n">
-        <v>131.96202233974</v>
+        <v>70.7894783722175</v>
       </c>
       <c r="D11" t="n">
-        <v>77.32736858911019</v>
+        <v>120.531863860111</v>
       </c>
       <c r="E11" t="n">
-        <v>94.7343889057352</v>
+        <v>113.754524285599</v>
       </c>
       <c r="F11" t="n">
-        <v>120.531863860111</v>
+        <v>126.732136476781</v>
       </c>
       <c r="G11" t="n">
-        <v>63.1317447501724</v>
+        <v>121.297846074247</v>
       </c>
       <c r="H11" t="n">
-        <v>103.246173502391</v>
+        <v>90.00221622139721</v>
       </c>
       <c r="I11" t="n">
-        <v>103.330151083921</v>
+        <v>114.331384078815</v>
       </c>
       <c r="J11" t="n">
-        <v>67.5694377915171</v>
+        <v>104.67837693562</v>
       </c>
       <c r="M11" t="n">
-        <v>101.5283072714328</v>
+        <v>96.09303897557567</v>
       </c>
       <c r="N11" t="n">
-        <v>19.91538444266287</v>
+        <v>23.89209043239275</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="n">
-        <v>108.957766816784</v>
+        <v>95.55214178603249</v>
       </c>
       <c r="B12" t="n">
-        <v>131.055049142915</v>
+        <v>124.391656070463</v>
       </c>
       <c r="C12" t="n">
-        <v>96.5825304925003</v>
+        <v>126.633821424281</v>
       </c>
       <c r="D12" t="n">
-        <v>76.6599536341496</v>
+        <v>99.4742506433679</v>
       </c>
       <c r="E12" t="n">
-        <v>125.108063890105</v>
+        <v>99.4826653932208</v>
       </c>
       <c r="F12" t="n">
-        <v>117.628303127307</v>
+        <v>125.746526880752</v>
       </c>
       <c r="G12" t="n">
-        <v>85.9056732525202</v>
+        <v>119.353705270588</v>
       </c>
       <c r="H12" t="n">
-        <v>120.812935780281</v>
+        <v>100.371511559538</v>
       </c>
       <c r="I12" t="n">
-        <v>83.0938166144665</v>
+        <v>118.907106314807</v>
       </c>
       <c r="J12" t="n">
-        <v>92.0259005554302</v>
+        <v>99.96981757641289</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="n">
-        <v>67.4609273657607</v>
+        <v>114.825836444648</v>
       </c>
       <c r="B13" t="n">
-        <v>103.125869088059</v>
+        <v>75.218977371433</v>
       </c>
       <c r="C13" t="n">
-        <v>114.080217720838</v>
+        <v>92.0259005554302</v>
       </c>
       <c r="D13" t="n">
-        <v>98.38779427970449</v>
+        <v>109.142525978003</v>
       </c>
       <c r="E13" t="n">
-        <v>116.39831083107</v>
+        <v>82.65932130753509</v>
       </c>
       <c r="F13" t="n">
-        <v>135.457067721915</v>
+        <v>79.9357773271168</v>
       </c>
       <c r="G13" t="n">
-        <v>88.0879048667851</v>
+        <v>86.47709395660419</v>
       </c>
       <c r="H13" t="n">
-        <v>80.6953258203832</v>
+        <v>110.166131108247</v>
       </c>
       <c r="I13" t="n">
-        <v>120.582684461625</v>
+        <v>67.9981732724972</v>
       </c>
       <c r="J13" t="n">
-        <v>66.7647154621036</v>
+        <v>79.6295613635388</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="n">
-        <v>94.23150941109689</v>
+        <v>108.002854413903</v>
       </c>
       <c r="B14" t="n">
-        <v>115.91423539205</v>
+        <v>98.1785387625749</v>
       </c>
       <c r="C14" t="n">
-        <v>75.7245676082687</v>
+        <v>76.00429428488521</v>
       </c>
       <c r="D14" t="n">
-        <v>98.8182905267664</v>
+        <v>81.0995286575607</v>
       </c>
       <c r="E14" t="n">
-        <v>87.90638550562529</v>
+        <v>145.300505864875</v>
       </c>
       <c r="F14" t="n">
-        <v>134.358995142702</v>
+        <v>134.8257918387</v>
       </c>
       <c r="G14" t="n">
-        <v>88.68073906390801</v>
+        <v>91.8687070501997</v>
       </c>
       <c r="H14" t="n">
-        <v>108.368385576576</v>
+        <v>77.3833291136748</v>
       </c>
       <c r="I14" t="n">
-        <v>92.2966930851768</v>
+        <v>110.730330645085</v>
       </c>
       <c r="J14" t="n">
-        <v>79.25338435948539</v>
+        <v>93.8978209852648</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="n">
-        <v>95.51107919052561</v>
+        <v>95.7035812381055</v>
       </c>
       <c r="B15" t="n">
-        <v>98.48672939425499</v>
+        <v>77.7742150435481</v>
       </c>
       <c r="C15" t="n">
-        <v>103.575376410579</v>
+        <v>119.583517786632</v>
       </c>
       <c r="D15" t="n">
-        <v>130.3384549928</v>
+        <v>123.343283289382</v>
       </c>
       <c r="E15" t="n">
-        <v>83.86145690228</v>
+        <v>122.659985732688</v>
       </c>
       <c r="F15" t="n">
-        <v>108.002854413903</v>
+        <v>86.9154965556516</v>
       </c>
       <c r="G15" t="n">
-        <v>110.831705900001</v>
+        <v>137.689514312234</v>
       </c>
       <c r="H15" t="n">
-        <v>99.5724871964746</v>
+        <v>77.7031528460552</v>
       </c>
       <c r="I15" t="n">
-        <v>103.984758982876</v>
+        <v>95.3555632117136</v>
       </c>
       <c r="J15" t="n">
-        <v>112.472210748565</v>
+        <v>69.466895488597</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="n">
-        <v>113.222094021433</v>
+        <v>102.217867715665</v>
       </c>
       <c r="B16" t="n">
-        <v>100.693959572377</v>
+        <v>134.013083014364</v>
       </c>
       <c r="C16" t="n">
-        <v>73.44959128965129</v>
+        <v>91.5410555789864</v>
       </c>
       <c r="D16" t="n">
-        <v>90.8230354891367</v>
+        <v>109.910750107961</v>
       </c>
       <c r="E16" t="n">
-        <v>115.958600700022</v>
+        <v>113.921869327167</v>
       </c>
       <c r="F16" t="n">
-        <v>105.789749647227</v>
+        <v>112.604296134095</v>
       </c>
       <c r="G16" t="n">
-        <v>89.2504894982854</v>
+        <v>72.12214961986091</v>
       </c>
       <c r="H16" t="n">
-        <v>54.7847910362301</v>
+        <v>90.6820177408395</v>
       </c>
       <c r="I16" t="n">
-        <v>110.560646422163</v>
+        <v>105.098364481529</v>
       </c>
       <c r="J16" t="n">
-        <v>93.8945793726102</v>
+        <v>89.13585956345401</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="n">
-        <v>51.3206659859354</v>
+        <v>84.04398405421129</v>
       </c>
       <c r="B17" t="n">
-        <v>122.619332492881</v>
+        <v>76.0569330963425</v>
       </c>
       <c r="C17" t="n">
-        <v>91.61324174039051</v>
+        <v>103.079588547691</v>
       </c>
       <c r="D17" t="n">
-        <v>47.7985800535743</v>
+        <v>95.55214178603249</v>
       </c>
       <c r="E17" t="n">
-        <v>63.1317447501724</v>
+        <v>96.44564919723101</v>
       </c>
       <c r="F17" t="n">
-        <v>127.3499995083</v>
+        <v>112.595636673963</v>
       </c>
       <c r="G17" t="n">
-        <v>102.031998042878</v>
+        <v>108.499001079349</v>
       </c>
       <c r="H17" t="n">
-        <v>103.768175789642</v>
+        <v>96.7096540192012</v>
       </c>
       <c r="I17" t="n">
-        <v>93.2872257570437</v>
+        <v>86.18638974872729</v>
       </c>
       <c r="J17" t="n">
-        <v>103.655073815638</v>
+        <v>111.478695067232</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="n">
-        <v>135.457067721915</v>
+        <v>49.6112258458579</v>
       </c>
       <c r="B18" t="n">
-        <v>80.42209754038301</v>
+        <v>79.0981961560677</v>
       </c>
       <c r="C18" t="n">
-        <v>75.25349845822539</v>
+        <v>108.081969974353</v>
       </c>
       <c r="D18" t="n">
-        <v>87.7761992412463</v>
+        <v>82.3661267840812</v>
       </c>
       <c r="E18" t="n">
-        <v>111.834569625483</v>
+        <v>115.787813215017</v>
       </c>
       <c r="F18" t="n">
-        <v>82.9344509841269</v>
+        <v>107.157389575707</v>
       </c>
       <c r="G18" t="n">
-        <v>54.7847910362301</v>
+        <v>82.65932130753509</v>
       </c>
       <c r="H18" t="n">
-        <v>104.401500567048</v>
+        <v>122.014044768571</v>
       </c>
       <c r="I18" t="n">
-        <v>85.9864490115872</v>
+        <v>114.177350355362</v>
       </c>
       <c r="J18" t="n">
-        <v>117.133691045252</v>
+        <v>76.15127318564321</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="n">
-        <v>117.663330868376</v>
+        <v>74.2686956551709</v>
       </c>
       <c r="B19" t="n">
-        <v>142.222542576026</v>
+        <v>126.732136476781</v>
       </c>
       <c r="C19" t="n">
-        <v>125.791495989353</v>
+        <v>110.728407887602</v>
       </c>
       <c r="D19" t="n">
-        <v>86.85234275864291</v>
+        <v>74.6290575254139</v>
       </c>
       <c r="E19" t="n">
-        <v>87.1245457767598</v>
+        <v>97.1140160699516</v>
       </c>
       <c r="F19" t="n">
-        <v>96.67179059738611</v>
+        <v>105.098364481529</v>
       </c>
       <c r="G19" t="n">
-        <v>82.9344509841269</v>
+        <v>88.69438713264979</v>
       </c>
       <c r="H19" t="n">
-        <v>138.443319466398</v>
+        <v>63.2782296341011</v>
       </c>
       <c r="I19" t="n">
-        <v>115.91423539205</v>
+        <v>98.09740553248611</v>
       </c>
       <c r="J19" t="n">
-        <v>121.233537326496</v>
+        <v>95.7035812381055</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="n">
-        <v>113.205382053862</v>
+        <v>100.083891460338</v>
       </c>
       <c r="B20" t="n">
-        <v>93.8978209852648</v>
+        <v>100.737135574829</v>
       </c>
       <c r="C20" t="n">
+        <v>65.6735206109835</v>
+      </c>
+      <c r="D20" t="n">
         <v>83.9318024919793</v>
       </c>
-      <c r="D20" t="n">
-        <v>123.493149022395</v>
-      </c>
       <c r="E20" t="n">
-        <v>105.020147321501</v>
+        <v>101.781518892614</v>
       </c>
       <c r="F20" t="n">
-        <v>129.331901773875</v>
+        <v>116.486143912537</v>
       </c>
       <c r="G20" t="n">
-        <v>76.00429428488521</v>
+        <v>84.9507140416947</v>
       </c>
       <c r="H20" t="n">
-        <v>113.233094405685</v>
+        <v>104.775770128321</v>
       </c>
       <c r="I20" t="n">
-        <v>103.719481060286</v>
+        <v>126.732136476781</v>
       </c>
       <c r="J20" t="n">
-        <v>88.0879048667851</v>
+        <v>104.136775678601</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="n">
-        <v>107.6856777148</v>
+        <v>128.544189529066</v>
       </c>
       <c r="B21" t="n">
-        <v>102.978956785878</v>
+        <v>73.5556112081204</v>
       </c>
       <c r="C21" t="n">
-        <v>72.5960692493703</v>
+        <v>92.5726507331038</v>
       </c>
       <c r="D21" t="n">
-        <v>131.96202233974</v>
+        <v>82.1048970775034</v>
       </c>
       <c r="E21" t="n">
-        <v>102.629332785704</v>
+        <v>77.82176004874739</v>
       </c>
       <c r="F21" t="n">
-        <v>123.124150584998</v>
+        <v>96.140782081521</v>
       </c>
       <c r="G21" t="n">
-        <v>80.6953258203832</v>
+        <v>67.9981732724972</v>
       </c>
       <c r="H21" t="n">
-        <v>114.424475635794</v>
+        <v>90.8230354891367</v>
       </c>
       <c r="I21" t="n">
-        <v>104.532156422172</v>
+        <v>63.6349989246749</v>
       </c>
       <c r="J21" t="n">
-        <v>104.949618188699</v>
+        <v>112.3453910781</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="n">
-        <v>100.672304901787</v>
+        <v>76.8573294624322</v>
       </c>
       <c r="B22" t="n">
-        <v>109.291212547948</v>
+        <v>113.407964197188</v>
       </c>
       <c r="C22" t="n">
-        <v>102.975168920975</v>
+        <v>110.587906108166</v>
       </c>
       <c r="D22" t="n">
-        <v>140.056516068091</v>
+        <v>91.1771995077554</v>
       </c>
       <c r="E22" t="n">
-        <v>80.8541012576881</v>
+        <v>102.556082633353</v>
       </c>
       <c r="F22" t="n">
-        <v>77.4210050766919</v>
+        <v>102.349778730765</v>
       </c>
       <c r="G22" t="n">
-        <v>107.157389575707</v>
+        <v>91.848337309665</v>
       </c>
       <c r="H22" t="n">
-        <v>91.1771995077554</v>
+        <v>111.445407802491</v>
       </c>
       <c r="I22" t="n">
-        <v>70.797325603882</v>
+        <v>82.1038367021185</v>
       </c>
       <c r="J22" t="n">
-        <v>121.22083560851</v>
+        <v>140.025313766913</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="n">
-        <v>96.9775894974525</v>
+        <v>73.40724467040231</v>
       </c>
       <c r="B23" t="n">
-        <v>57.7970833052026</v>
+        <v>133.506247080469</v>
       </c>
       <c r="C23" t="n">
-        <v>76.8421319692862</v>
+        <v>81.8796290397694</v>
       </c>
       <c r="D23" t="n">
-        <v>102.160015980062</v>
+        <v>86.6925418993186</v>
       </c>
       <c r="E23" t="n">
-        <v>127.241945964959</v>
+        <v>41.2863204640304</v>
       </c>
       <c r="F23" t="n">
-        <v>98.32673788744729</v>
+        <v>48.0649106806421</v>
       </c>
       <c r="G23" t="n">
-        <v>117.034240562271</v>
+        <v>117.629819324523</v>
       </c>
       <c r="H23" t="n">
-        <v>56.9427179163874</v>
+        <v>88.5095984344255</v>
       </c>
       <c r="I23" t="n">
-        <v>112.962176701882</v>
+        <v>105.638733011804</v>
       </c>
       <c r="J23" t="n">
-        <v>122.975116290847</v>
+        <v>120.73087316834</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="n">
-        <v>113.832909589636</v>
+        <v>65.2210788608454</v>
       </c>
       <c r="B24" t="n">
-        <v>93.8110650943905</v>
+        <v>119.305131424177</v>
       </c>
       <c r="C24" t="n">
-        <v>121.445490239961</v>
+        <v>137.553109346779</v>
       </c>
       <c r="D24" t="n">
-        <v>130.403572587724</v>
+        <v>125.791495989353</v>
       </c>
       <c r="E24" t="n">
-        <v>99.6240548820232</v>
+        <v>101.908092101443</v>
       </c>
       <c r="F24" t="n">
-        <v>112.962176701882</v>
+        <v>111.478695067232</v>
       </c>
       <c r="G24" t="n">
-        <v>138.666907302361</v>
+        <v>108.131202433963</v>
       </c>
       <c r="H24" t="n">
-        <v>88.5095984344255</v>
+        <v>122.719137501055</v>
       </c>
       <c r="I24" t="n">
-        <v>81.8796290397694</v>
+        <v>118.964162311696</v>
       </c>
       <c r="J24" t="n">
-        <v>106.813523482624</v>
+        <v>121.768448997151</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="n">
+        <v>99.3003473726741</v>
+      </c>
+      <c r="B25" t="n">
         <v>102.948351061575</v>
       </c>
-      <c r="B25" t="n">
+      <c r="C25" t="n">
+        <v>93.6145172761989</v>
+      </c>
+      <c r="D25" t="n">
+        <v>85.1156631195078</v>
+      </c>
+      <c r="E25" t="n">
+        <v>102.067622035644</v>
+      </c>
+      <c r="F25" t="n">
+        <v>99.3003473726741</v>
+      </c>
+      <c r="G25" t="n">
+        <v>113.243162300978</v>
+      </c>
+      <c r="H25" t="n">
         <v>72.30548204805881</v>
       </c>
-      <c r="C25" t="n">
-        <v>95.0834553988455</v>
-      </c>
-      <c r="D25" t="n">
-        <v>79.6536935321333</v>
-      </c>
-      <c r="E25" t="n">
-        <v>76.8809167709255</v>
-      </c>
-      <c r="F25" t="n">
-        <v>108.881232957743</v>
-      </c>
-      <c r="G25" t="n">
-        <v>75.7420211332926</v>
-      </c>
-      <c r="H25" t="n">
-        <v>86.3903907415274</v>
-      </c>
       <c r="I25" t="n">
-        <v>117.457067372944</v>
+        <v>90.00221622139721</v>
       </c>
       <c r="J25" t="n">
-        <v>93.4410786362246</v>
+        <v>120.314739406153</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="n">
-        <v>99.97728900203251</v>
+        <v>86.1260088679152</v>
       </c>
       <c r="B26" t="n">
-        <v>154.202450160038</v>
+        <v>82.8576051358103</v>
       </c>
       <c r="C26" t="n">
-        <v>79.9333897374695</v>
+        <v>98.6357304551902</v>
       </c>
       <c r="D26" t="n">
-        <v>86.6925418993186</v>
+        <v>92.2966930851768</v>
       </c>
       <c r="E26" t="n">
-        <v>126.041967978569</v>
+        <v>129.539711571983</v>
       </c>
       <c r="F26" t="n">
-        <v>89.3592852355073</v>
+        <v>112.321039434385</v>
       </c>
       <c r="G26" t="n">
-        <v>113.754524285599</v>
+        <v>100.001361682377</v>
       </c>
       <c r="H26" t="n">
-        <v>88.9073063550718</v>
+        <v>89.3457975117738</v>
       </c>
       <c r="I26" t="n">
-        <v>108.025121914088</v>
+        <v>115.813248189277</v>
       </c>
       <c r="J26" t="n">
-        <v>114.36101921741</v>
+        <v>144.458102055705</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="n">
-        <v>95.3555632117136</v>
+        <v>154.239137895335</v>
       </c>
       <c r="B27" t="n">
-        <v>77.4210050766919</v>
+        <v>88.4407615382471</v>
       </c>
       <c r="C27" t="n">
-        <v>103.95913028829</v>
+        <v>72.88561940650369</v>
       </c>
       <c r="D27" t="n">
-        <v>90.19668821508699</v>
+        <v>94.4344083747811</v>
       </c>
       <c r="E27" t="n">
-        <v>105.26707162491</v>
+        <v>95.93956705435551</v>
       </c>
       <c r="F27" t="n">
-        <v>92.70887484915779</v>
+        <v>77.3833291136748</v>
       </c>
       <c r="G27" t="n">
-        <v>94.4344083747811</v>
+        <v>80.8904186170784</v>
       </c>
       <c r="H27" t="n">
-        <v>108.881232957743</v>
+        <v>91.8687070501997</v>
       </c>
       <c r="I27" t="n">
-        <v>58.6300363144334</v>
+        <v>99.8832737601241</v>
       </c>
       <c r="J27" t="n">
-        <v>98.09292206537</v>
+        <v>88.8342026941244</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="n">
-        <v>122.975116290847</v>
+        <v>73.31788623945781</v>
       </c>
       <c r="B28" t="n">
-        <v>113.388100414847</v>
+        <v>98.09292206537</v>
       </c>
       <c r="C28" t="n">
-        <v>133.160829073397</v>
+        <v>107.816000904233</v>
       </c>
       <c r="D28" t="n">
-        <v>119.275522312851</v>
+        <v>111.525290255445</v>
       </c>
       <c r="E28" t="n">
-        <v>131.505293310241</v>
+        <v>114.424475635794</v>
       </c>
       <c r="F28" t="n">
-        <v>94.81922320445381</v>
+        <v>101.913860972588</v>
       </c>
       <c r="G28" t="n">
-        <v>107.498733290567</v>
+        <v>105.362557873188</v>
       </c>
       <c r="H28" t="n">
-        <v>107.77731869603</v>
+        <v>126.041967978569</v>
       </c>
       <c r="I28" t="n">
-        <v>86.55709954870569</v>
+        <v>139.703635294026</v>
       </c>
       <c r="J28" t="n">
-        <v>141.844711702953</v>
+        <v>50.1869156397563</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" t="n">
-        <v>88.69438713264979</v>
+        <v>135.713288724195</v>
       </c>
       <c r="B29" t="n">
-        <v>132.82218963638</v>
+        <v>99.4050409276965</v>
       </c>
       <c r="C29" t="n">
-        <v>81.5156097929501</v>
+        <v>88.2171204845707</v>
       </c>
       <c r="D29" t="n">
-        <v>102.78652488269</v>
+        <v>103.109391594086</v>
       </c>
       <c r="E29" t="n">
-        <v>140.025313766913</v>
+        <v>127.3499995083</v>
       </c>
       <c r="F29" t="n">
-        <v>84.5478314073477</v>
+        <v>80.80097228934299</v>
       </c>
       <c r="G29" t="n">
-        <v>151.210252461778</v>
+        <v>77.3833291136748</v>
       </c>
       <c r="H29" t="n">
-        <v>112.472210748565</v>
+        <v>109.863950362314</v>
       </c>
       <c r="I29" t="n">
-        <v>95.51107919052561</v>
+        <v>112.131724608374</v>
       </c>
       <c r="J29" t="n">
-        <v>109.753789677891</v>
+        <v>73.31788623945781</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="n">
-        <v>103.079588547691</v>
+        <v>127.375846347343</v>
       </c>
       <c r="B30" t="n">
-        <v>120.85012432267</v>
+        <v>73.66560789042281</v>
       </c>
       <c r="C30" t="n">
-        <v>95.51107919052561</v>
+        <v>70.836067030601</v>
       </c>
       <c r="D30" t="n">
-        <v>110.657076452711</v>
+        <v>103.768175789642</v>
       </c>
       <c r="E30" t="n">
-        <v>137.689514312234</v>
+        <v>83.69618904511741</v>
       </c>
       <c r="F30" t="n">
-        <v>119.495803934441</v>
+        <v>121.22083560851</v>
       </c>
       <c r="G30" t="n">
-        <v>93.91254895396661</v>
+        <v>114.862491682618</v>
       </c>
       <c r="H30" t="n">
-        <v>93.1710976722857</v>
+        <v>148.366249863066</v>
       </c>
       <c r="I30" t="n">
-        <v>131.329703237013</v>
+        <v>61.6311313802051</v>
       </c>
       <c r="J30" t="n">
-        <v>101.181257828749</v>
+        <v>58.6300363144334</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" t="n">
-        <v>96.10346406878151</v>
+        <v>97.4657978622467</v>
       </c>
       <c r="B31" t="n">
-        <v>83.94000829482491</v>
+        <v>41.2863204640304</v>
       </c>
       <c r="C31" t="n">
-        <v>94.60878600309751</v>
+        <v>86.3903907415274</v>
       </c>
       <c r="D31" t="n">
-        <v>59.6368116219104</v>
+        <v>112.557742196006</v>
       </c>
       <c r="E31" t="n">
-        <v>92.0259005554302</v>
+        <v>98.8691169591156</v>
       </c>
       <c r="F31" t="n">
-        <v>102.429491792484</v>
+        <v>109.086586786159</v>
       </c>
       <c r="G31" t="n">
-        <v>77.7316761371236</v>
+        <v>110.851432078936</v>
       </c>
       <c r="H31" t="n">
-        <v>84.1386690243762</v>
+        <v>78.0631384249177</v>
       </c>
       <c r="I31" t="n">
-        <v>137.553109346779</v>
+        <v>79.2155262093427</v>
       </c>
       <c r="J31" t="n">
-        <v>112.287290181623</v>
+        <v>48.0649106806421</v>
       </c>
     </row>
   </sheetData>
@@ -2723,1342 +2726,1342 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="n">
-        <v>94.3000113801253</v>
+        <v>139.510685938072</v>
       </c>
       <c r="B2" t="n">
-        <v>112.595636673963</v>
+        <v>97.0423109254225</v>
       </c>
       <c r="C2" t="n">
-        <v>117.295112846294</v>
+        <v>81.6998424391879</v>
       </c>
       <c r="D2" t="n">
-        <v>131.438790327161</v>
+        <v>129.331901773875</v>
       </c>
       <c r="E2" t="n">
-        <v>85.9407078155789</v>
+        <v>94.7343889057352</v>
       </c>
       <c r="F2" t="n">
-        <v>95.2541714605547</v>
+        <v>67.3282608678565</v>
       </c>
       <c r="G2" t="n">
-        <v>64.87422707720189</v>
+        <v>123.124150584998</v>
       </c>
       <c r="H2" t="n">
-        <v>115.262174604132</v>
+        <v>100.876188220322</v>
       </c>
       <c r="I2" t="n">
-        <v>66.7647154621036</v>
+        <v>84.548479628463</v>
       </c>
       <c r="J2" t="n">
-        <v>101.908092101443</v>
+        <v>137.135866940632</v>
       </c>
       <c r="M2" t="n">
-        <v>98.03260758597561</v>
+        <v>102.3391362005395</v>
       </c>
       <c r="N2" t="n">
-        <v>20.29904529112217</v>
+        <v>23.06893362507541</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="n">
-        <v>60.0156171924722</v>
+        <v>99.8832737601241</v>
       </c>
       <c r="B3" t="n">
-        <v>79.0283741236708</v>
+        <v>119.820910923757</v>
       </c>
       <c r="C3" t="n">
-        <v>111.377965235851</v>
+        <v>108.518550342788</v>
       </c>
       <c r="D3" t="n">
-        <v>83.3808588133855</v>
+        <v>94.3000113801253</v>
       </c>
       <c r="E3" t="n">
-        <v>108.002854413903</v>
+        <v>120.10198815314</v>
       </c>
       <c r="F3" t="n">
+        <v>100.748830925226</v>
+      </c>
+      <c r="G3" t="n">
+        <v>124.641230986405</v>
+      </c>
+      <c r="H3" t="n">
         <v>96.7880589427875</v>
       </c>
-      <c r="G3" t="n">
-        <v>103.719481060286</v>
-      </c>
-      <c r="H3" t="n">
-        <v>93.1710976722857</v>
-      </c>
       <c r="I3" t="n">
-        <v>114.623017138233</v>
+        <v>99.8832737601241</v>
       </c>
       <c r="J3" t="n">
-        <v>53.674307380248</v>
+        <v>116.100252097768</v>
       </c>
       <c r="M3" t="n">
-        <v>103.2185327874161</v>
+        <v>98.51241448658081</v>
       </c>
       <c r="N3" t="n">
-        <v>18.3342820023459</v>
+        <v>21.10658283422565</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="n">
-        <v>99.6240548820232</v>
+        <v>154.432697846321</v>
       </c>
       <c r="B4" t="n">
-        <v>102.629332785704</v>
+        <v>121.768448997151</v>
       </c>
       <c r="C4" t="n">
-        <v>120.10198815314</v>
+        <v>109.701160847844</v>
       </c>
       <c r="D4" t="n">
-        <v>112.459409854856</v>
+        <v>108.518550342788</v>
       </c>
       <c r="E4" t="n">
-        <v>74.5298873046693</v>
+        <v>130.403572587724</v>
       </c>
       <c r="F4" t="n">
-        <v>89.65915318288729</v>
+        <v>104.136775678601</v>
       </c>
       <c r="G4" t="n">
-        <v>78.5104229051345</v>
+        <v>101.509610379451</v>
       </c>
       <c r="H4" t="n">
-        <v>93.91254895396661</v>
+        <v>103.768175789642</v>
       </c>
       <c r="I4" t="n">
-        <v>123.904695810247</v>
+        <v>108.131202433963</v>
       </c>
       <c r="J4" t="n">
-        <v>84.548479628463</v>
+        <v>47.7985800535743</v>
       </c>
       <c r="M4" t="n">
-        <v>98.32032108131114</v>
+        <v>97.9154418743874</v>
       </c>
       <c r="N4" t="n">
-        <v>21.95639163340881</v>
+        <v>16.93242988660115</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="n">
-        <v>107.386631290566</v>
+        <v>72.3185763908089</v>
       </c>
       <c r="B5" t="n">
-        <v>72.7246698579667</v>
+        <v>121.445490239961</v>
       </c>
       <c r="C5" t="n">
-        <v>72.246600269933</v>
+        <v>108.452433661087</v>
       </c>
       <c r="D5" t="n">
-        <v>110.369551806998</v>
+        <v>90.00221622139721</v>
       </c>
       <c r="E5" t="n">
-        <v>120.024808022455</v>
+        <v>96.0052425942681</v>
       </c>
       <c r="F5" t="n">
-        <v>114.862491682618</v>
+        <v>103.212774914642</v>
       </c>
       <c r="G5" t="n">
-        <v>77.7316761371236</v>
+        <v>78.3491451006758</v>
       </c>
       <c r="H5" t="n">
-        <v>92.2143628002495</v>
+        <v>123.316863154065</v>
       </c>
       <c r="I5" t="n">
-        <v>114.030527367663</v>
+        <v>92.5726507331038</v>
       </c>
       <c r="J5" t="n">
-        <v>104.532156422172</v>
+        <v>113.388100414847</v>
       </c>
       <c r="M5" t="n">
-        <v>100.7844716927405</v>
+        <v>93.87601583480127</v>
       </c>
       <c r="N5" t="n">
-        <v>23.5777436829292</v>
+        <v>18.71792973153158</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="n">
-        <v>91.5893808017085</v>
+        <v>89.6226438439973</v>
       </c>
       <c r="B6" t="n">
-        <v>93.3101491223257</v>
+        <v>100.672304901787</v>
       </c>
       <c r="C6" t="n">
-        <v>86.7942574394811</v>
+        <v>90.4176638960016</v>
       </c>
       <c r="D6" t="n">
-        <v>91.5410555789864</v>
+        <v>101.913860972588</v>
       </c>
       <c r="E6" t="n">
-        <v>99.96981757641289</v>
+        <v>109.905557828168</v>
       </c>
       <c r="F6" t="n">
-        <v>111.142266053493</v>
+        <v>101.131993677025</v>
       </c>
       <c r="G6" t="n">
-        <v>101.908092101443</v>
+        <v>104.67837693562</v>
       </c>
       <c r="H6" t="n">
-        <v>90.4751794345173</v>
+        <v>83.0695545218119</v>
       </c>
       <c r="I6" t="n">
-        <v>74.132943373315</v>
+        <v>116.904088345918</v>
       </c>
       <c r="J6" t="n">
-        <v>74.276482486286</v>
+        <v>129.839901449671</v>
       </c>
       <c r="M6" t="n">
-        <v>103.5006714546504</v>
+        <v>106.9755812681062</v>
       </c>
       <c r="N6" t="n">
-        <v>19.38543261684073</v>
+        <v>19.74341880026885</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="n">
-        <v>104.726796442986</v>
+        <v>114.177350355362</v>
       </c>
       <c r="B7" t="n">
-        <v>109.142525978003</v>
+        <v>104.67837693562</v>
       </c>
       <c r="C7" t="n">
-        <v>80.6843464378456</v>
+        <v>105.081676122147</v>
       </c>
       <c r="D7" t="n">
-        <v>112.287290181623</v>
+        <v>85.21975558503389</v>
       </c>
       <c r="E7" t="n">
-        <v>102.975168920975</v>
+        <v>93.6145172761989</v>
       </c>
       <c r="F7" t="n">
-        <v>85.7532246417701</v>
+        <v>98.4551549059527</v>
       </c>
       <c r="G7" t="n">
-        <v>93.2186926198078</v>
+        <v>92.2143628002495</v>
       </c>
       <c r="H7" t="n">
-        <v>119.130577089344</v>
+        <v>106.398360507584</v>
       </c>
       <c r="I7" t="n">
-        <v>97.03493842570521</v>
+        <v>120.73087316834</v>
       </c>
       <c r="J7" t="n">
-        <v>116.953660997717</v>
+        <v>111.700149728121</v>
       </c>
       <c r="M7" t="n">
-        <v>103.3527114545904</v>
+        <v>98.4768314247835</v>
       </c>
       <c r="N7" t="n">
-        <v>17.05024874230172</v>
+        <v>17.41067207227271</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="n">
-        <v>94.8982101455619</v>
+        <v>89.40082904308581</v>
       </c>
       <c r="B8" t="n">
-        <v>122.975116290847</v>
+        <v>119.720943871803</v>
       </c>
       <c r="C8" t="n">
-        <v>72.6122988181595</v>
+        <v>77.32110584369759</v>
       </c>
       <c r="D8" t="n">
-        <v>116.090262288112</v>
+        <v>133.05906015884</v>
       </c>
       <c r="E8" t="n">
-        <v>69.466895488597</v>
+        <v>138.666907302361</v>
       </c>
       <c r="F8" t="n">
-        <v>87.9797454301636</v>
+        <v>88.4776252011866</v>
       </c>
       <c r="G8" t="n">
-        <v>116.953660997717</v>
+        <v>92.5726507331038</v>
       </c>
       <c r="H8" t="n">
-        <v>102.78652488269</v>
+        <v>87.50832040327001</v>
       </c>
       <c r="I8" t="n">
-        <v>113.979383418544</v>
+        <v>88.4776252011866</v>
       </c>
       <c r="J8" t="n">
-        <v>107.850803643371</v>
+        <v>110.938110965641</v>
       </c>
       <c r="M8" t="n">
-        <v>100.4077344646824</v>
+        <v>104.4724206108712</v>
       </c>
       <c r="N8" t="n">
-        <v>19.23646601712029</v>
+        <v>20.10284638169605</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="n">
-        <v>86.6997774047298</v>
+        <v>114.34798428742</v>
       </c>
       <c r="B9" t="n">
-        <v>117.628303127307</v>
+        <v>82.3661267840812</v>
       </c>
       <c r="C9" t="n">
-        <v>124.081196644278</v>
+        <v>96.5315677378461</v>
       </c>
       <c r="D9" t="n">
-        <v>122.619332492881</v>
+        <v>114.870316142871</v>
       </c>
       <c r="E9" t="n">
-        <v>75.218977371433</v>
+        <v>138.443319466398</v>
       </c>
       <c r="F9" t="n">
-        <v>114.497376243853</v>
+        <v>81.6998424391879</v>
       </c>
       <c r="G9" t="n">
-        <v>122.659985732688</v>
+        <v>116.877518444484</v>
       </c>
       <c r="H9" t="n">
-        <v>106.358380940111</v>
+        <v>67.3282608678565</v>
       </c>
       <c r="I9" t="n">
-        <v>90.3094204979177</v>
+        <v>117.139615499409</v>
       </c>
       <c r="J9" t="n">
-        <v>116.100252097768</v>
+        <v>141.844711702953</v>
       </c>
       <c r="M9" t="n">
-        <v>102.1518033117717</v>
+        <v>99.39223247988546</v>
       </c>
       <c r="N9" t="n">
-        <v>19.42669176232414</v>
+        <v>16.94134647922345</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="n">
-        <v>94.5048477647823</v>
+        <v>63.6349989246749</v>
       </c>
       <c r="B10" t="n">
-        <v>133.300457362705</v>
+        <v>121.233537326496</v>
       </c>
       <c r="C10" t="n">
-        <v>148.142999564099</v>
+        <v>120.85012432267</v>
       </c>
       <c r="D10" t="n">
-        <v>78.4173565703926</v>
+        <v>118.036269932785</v>
       </c>
       <c r="E10" t="n">
-        <v>131.092463159797</v>
+        <v>89.13585956345401</v>
       </c>
       <c r="F10" t="n">
-        <v>87.63714373671669</v>
+        <v>73.0416629418992</v>
       </c>
       <c r="G10" t="n">
-        <v>89.13585956345401</v>
+        <v>101.16119573156</v>
       </c>
       <c r="H10" t="n">
-        <v>98.6970381047249</v>
+        <v>112.53889113494</v>
       </c>
       <c r="I10" t="n">
-        <v>107.109962251814</v>
+        <v>74.5298873046693</v>
       </c>
       <c r="J10" t="n">
-        <v>129.195948569397</v>
+        <v>59.3435304750264</v>
       </c>
       <c r="M10" t="n">
-        <v>94.78350602318014</v>
+        <v>98.97500266860197</v>
       </c>
       <c r="N10" t="n">
-        <v>17.41067811897564</v>
+        <v>17.92236743723188</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="n">
-        <v>70.836067030601</v>
+        <v>45.4176140914697</v>
       </c>
       <c r="B11" t="n">
-        <v>92.2966930851768</v>
+        <v>86.18638974872729</v>
       </c>
       <c r="C11" t="n">
-        <v>108.380822307989</v>
+        <v>92.4720468229399</v>
       </c>
       <c r="D11" t="n">
-        <v>121.673290446002</v>
+        <v>52.7841553147028</v>
       </c>
       <c r="E11" t="n">
-        <v>130.848932927859</v>
+        <v>159.277016217243</v>
       </c>
       <c r="F11" t="n">
-        <v>106.450386577644</v>
+        <v>103.079588547691</v>
       </c>
       <c r="G11" t="n">
-        <v>112.316970104463</v>
+        <v>93.2872257570437</v>
       </c>
       <c r="H11" t="n">
-        <v>93.7384364984979</v>
+        <v>97.65379265299821</v>
       </c>
       <c r="I11" t="n">
-        <v>112.316970104463</v>
+        <v>103.655073815638</v>
       </c>
       <c r="J11" t="n">
-        <v>94.7220715462623</v>
+        <v>118.546813005314</v>
       </c>
       <c r="M11" t="n">
-        <v>99.72547125784831</v>
+        <v>98.02154692968212</v>
       </c>
       <c r="N11" t="n">
-        <v>20.60134366295649</v>
+        <v>23.34712859546665</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="n">
-        <v>45.4176140914697</v>
+        <v>103.399291361968</v>
       </c>
       <c r="B12" t="n">
-        <v>85.21975558503389</v>
+        <v>102.031998042878</v>
       </c>
       <c r="C12" t="n">
-        <v>120.314739406153</v>
+        <v>80.80097228934299</v>
       </c>
       <c r="D12" t="n">
-        <v>125.746526880752</v>
+        <v>93.91254895396661</v>
       </c>
       <c r="E12" t="n">
-        <v>117.413958896963</v>
+        <v>89.022237920965</v>
       </c>
       <c r="F12" t="n">
-        <v>100.083891460338</v>
+        <v>98.2220702939143</v>
       </c>
       <c r="G12" t="n">
-        <v>87.167868456996</v>
+        <v>84.9507140416947</v>
       </c>
       <c r="H12" t="n">
-        <v>73.9927805673339</v>
+        <v>100.422966627155</v>
       </c>
       <c r="I12" t="n">
-        <v>122.659985732688</v>
+        <v>103.719481060286</v>
       </c>
       <c r="J12" t="n">
-        <v>87.9797454301636</v>
+        <v>56.3536743982222</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="n">
-        <v>102.978956785878</v>
+        <v>117.663330868376</v>
       </c>
       <c r="B13" t="n">
-        <v>127.375846347343</v>
+        <v>95.4402784939753</v>
       </c>
       <c r="C13" t="n">
-        <v>127.241945964959</v>
+        <v>60.0156171924722</v>
       </c>
       <c r="D13" t="n">
-        <v>140.224753363313</v>
+        <v>114.061806335318</v>
       </c>
       <c r="E13" t="n">
-        <v>98.6357304551902</v>
+        <v>133.807720096782</v>
       </c>
       <c r="F13" t="n">
-        <v>120.792886795325</v>
+        <v>108.03162129046</v>
       </c>
       <c r="G13" t="n">
-        <v>53.674307380248</v>
+        <v>92.5242105064676</v>
       </c>
       <c r="H13" t="n">
-        <v>125.206941966994</v>
+        <v>84.4229509767399</v>
       </c>
       <c r="I13" t="n">
-        <v>87.7761992412463</v>
+        <v>103.575376410579</v>
       </c>
       <c r="J13" t="n">
-        <v>93.8110650943905</v>
+        <v>95.55214178603249</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="n">
-        <v>103.212774914642</v>
+        <v>80.8541012576881</v>
       </c>
       <c r="B14" t="n">
-        <v>122.954191793234</v>
+        <v>114.840649910703</v>
       </c>
       <c r="C14" t="n">
-        <v>79.0283741236708</v>
+        <v>105.789749647227</v>
       </c>
       <c r="D14" t="n">
-        <v>41.2863204640304</v>
+        <v>96.11797706818309</v>
       </c>
       <c r="E14" t="n">
-        <v>102.629332785704</v>
+        <v>92.5563582744345</v>
       </c>
       <c r="F14" t="n">
-        <v>111.700149728121</v>
+        <v>117.133691045252</v>
       </c>
       <c r="G14" t="n">
-        <v>96.0052425942681</v>
+        <v>120.913435991714</v>
       </c>
       <c r="H14" t="n">
-        <v>98.8182905267664</v>
+        <v>91.95559011276499</v>
       </c>
       <c r="I14" t="n">
-        <v>72.3404149764048</v>
+        <v>119.261130669653</v>
       </c>
       <c r="J14" t="n">
-        <v>118.907106314807</v>
+        <v>128.544189529066</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="n">
-        <v>107.540753197393</v>
+        <v>144.458102055705</v>
       </c>
       <c r="B15" t="n">
-        <v>98.2772119906606</v>
+        <v>103.330151083921</v>
       </c>
       <c r="C15" t="n">
-        <v>91.34209938245471</v>
+        <v>97.22787786167591</v>
       </c>
       <c r="D15" t="n">
-        <v>135.655483431004</v>
+        <v>82.9344509841269</v>
       </c>
       <c r="E15" t="n">
-        <v>72.88561940650369</v>
+        <v>89.2504894982854</v>
       </c>
       <c r="F15" t="n">
-        <v>103.330151083921</v>
+        <v>129.383912001855</v>
       </c>
       <c r="G15" t="n">
-        <v>112.487909720276</v>
+        <v>141.844711702953</v>
       </c>
       <c r="H15" t="n">
-        <v>118.036269932785</v>
+        <v>108.368385576576</v>
       </c>
       <c r="I15" t="n">
-        <v>102.349778730765</v>
+        <v>88.77221722263739</v>
       </c>
       <c r="J15" t="n">
-        <v>92.18119255354389</v>
+        <v>65.6735206109835</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="n">
-        <v>95.0889701917022</v>
+        <v>86.7942574394811</v>
       </c>
       <c r="B16" t="n">
-        <v>137.689514312234</v>
+        <v>115.14467865213</v>
       </c>
       <c r="C16" t="n">
-        <v>87.3553910759364</v>
+        <v>88.003167460874</v>
       </c>
       <c r="D16" t="n">
-        <v>82.1038367021185</v>
+        <v>79.9357773271168</v>
       </c>
       <c r="E16" t="n">
-        <v>108.025121914088</v>
+        <v>91.5410555789864</v>
       </c>
       <c r="F16" t="n">
-        <v>120.73087316834</v>
+        <v>92.470062521342</v>
       </c>
       <c r="G16" t="n">
-        <v>98.09292206537</v>
+        <v>65.7103050217604</v>
       </c>
       <c r="H16" t="n">
-        <v>120.531863860111</v>
+        <v>86.55709954870569</v>
       </c>
       <c r="I16" t="n">
-        <v>88.5414084064482</v>
+        <v>112.487909720276</v>
       </c>
       <c r="J16" t="n">
-        <v>82.45011221675691</v>
+        <v>107.816000904233</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="n">
-        <v>104.67837693562</v>
+        <v>95.0889701917022</v>
       </c>
       <c r="B17" t="n">
-        <v>89.13585956345401</v>
+        <v>85.654535662106</v>
       </c>
       <c r="C17" t="n">
-        <v>92.70887484915779</v>
+        <v>113.360237690944</v>
       </c>
       <c r="D17" t="n">
-        <v>101.131993677025</v>
+        <v>105.49282327551</v>
       </c>
       <c r="E17" t="n">
-        <v>80.8904186170784</v>
+        <v>121.673290446002</v>
       </c>
       <c r="F17" t="n">
-        <v>120.314739406153</v>
+        <v>130.860967687651</v>
       </c>
       <c r="G17" t="n">
-        <v>102.948351061575</v>
+        <v>105.899315129141</v>
       </c>
       <c r="H17" t="n">
-        <v>98.38779427970449</v>
+        <v>115.258459757249</v>
       </c>
       <c r="I17" t="n">
-        <v>76.57964491828081</v>
+        <v>119.353705270588</v>
       </c>
       <c r="J17" t="n">
-        <v>90.11076022325381</v>
+        <v>86.4546334576215</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="n">
+        <v>102.948351061575</v>
+      </c>
+      <c r="B18" t="n">
+        <v>102.975168920975</v>
+      </c>
+      <c r="C18" t="n">
+        <v>63.6349989246749</v>
+      </c>
+      <c r="D18" t="n">
+        <v>97.6908199880648</v>
+      </c>
+      <c r="E18" t="n">
+        <v>127.517030747644</v>
+      </c>
+      <c r="F18" t="n">
+        <v>76.8421319692862</v>
+      </c>
+      <c r="G18" t="n">
         <v>80.8541012576881</v>
       </c>
-      <c r="B18" t="n">
-        <v>93.8468206670705</v>
-      </c>
-      <c r="C18" t="n">
-        <v>78.5974361706492</v>
-      </c>
-      <c r="D18" t="n">
-        <v>82.45011221675691</v>
-      </c>
-      <c r="E18" t="n">
-        <v>84.597044032406</v>
-      </c>
-      <c r="F18" t="n">
-        <v>128.795817983363</v>
-      </c>
-      <c r="G18" t="n">
-        <v>107.498733290567</v>
-      </c>
       <c r="H18" t="n">
-        <v>131.092463159797</v>
+        <v>76.57964491828081</v>
       </c>
       <c r="I18" t="n">
-        <v>112.998025701407</v>
+        <v>72.7246698579667</v>
       </c>
       <c r="J18" t="n">
-        <v>94.3000113801253</v>
+        <v>108.667009802108</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="n">
-        <v>88.68073906390801</v>
+        <v>75.7245676082687</v>
       </c>
       <c r="B19" t="n">
-        <v>112.84046579721</v>
+        <v>83.0695545218119</v>
       </c>
       <c r="C19" t="n">
-        <v>59.8894869001685</v>
+        <v>90.19668821508699</v>
       </c>
       <c r="D19" t="n">
-        <v>107.01216753335</v>
+        <v>49.6112258458579</v>
       </c>
       <c r="E19" t="n">
-        <v>110.996577685631</v>
+        <v>96.06503495330109</v>
       </c>
       <c r="F19" t="n">
-        <v>74.5298873046693</v>
+        <v>102.975168920975</v>
       </c>
       <c r="G19" t="n">
-        <v>93.8978209852648</v>
+        <v>92.2966930851768</v>
       </c>
       <c r="H19" t="n">
-        <v>119.153370716301</v>
+        <v>79.9357773271168</v>
       </c>
       <c r="I19" t="n">
-        <v>70.7321303427611</v>
+        <v>120.115685038088</v>
       </c>
       <c r="J19" t="n">
-        <v>62.1296784692623</v>
+        <v>91.848337309665</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="n">
-        <v>119.495803934441</v>
+        <v>101.605901965847</v>
       </c>
       <c r="B20" t="n">
-        <v>105.997173919326</v>
+        <v>83.84771967115439</v>
       </c>
       <c r="C20" t="n">
-        <v>84.5340539756604</v>
+        <v>128.06678970663</v>
       </c>
       <c r="D20" t="n">
-        <v>122.014044768571</v>
+        <v>111.700149728121</v>
       </c>
       <c r="E20" t="n">
-        <v>135.705259464249</v>
+        <v>123.724369717283</v>
       </c>
       <c r="F20" t="n">
-        <v>82.9437947219143</v>
+        <v>110.996577685631</v>
       </c>
       <c r="G20" t="n">
-        <v>119.510558692758</v>
+        <v>120.674698689802</v>
       </c>
       <c r="H20" t="n">
-        <v>126.732136476781</v>
+        <v>77.32736858911019</v>
       </c>
       <c r="I20" t="n">
-        <v>79.0981961560677</v>
+        <v>107.01216753335</v>
       </c>
       <c r="J20" t="n">
-        <v>118.68066143616</v>
+        <v>79.2155262093427</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="n">
-        <v>79.2155262093427</v>
+        <v>124.477786044172</v>
       </c>
       <c r="B21" t="n">
-        <v>114.061806335318</v>
+        <v>59.6368116219104</v>
       </c>
       <c r="C21" t="n">
-        <v>109.028461716704</v>
+        <v>126.041967978569</v>
       </c>
       <c r="D21" t="n">
-        <v>117.133691045252</v>
+        <v>83.9116344663161</v>
       </c>
       <c r="E21" t="n">
-        <v>133.456301031996</v>
+        <v>107.77731869603</v>
       </c>
       <c r="F21" t="n">
-        <v>81.8042766465021</v>
+        <v>112.472210748565</v>
       </c>
       <c r="G21" t="n">
-        <v>99.96981757641289</v>
+        <v>96.140782081521</v>
       </c>
       <c r="H21" t="n">
-        <v>93.2872257570437</v>
+        <v>92.2966930851768</v>
       </c>
       <c r="I21" t="n">
-        <v>112.487909720276</v>
+        <v>145.300505864875</v>
       </c>
       <c r="J21" t="n">
-        <v>139.703635294026</v>
+        <v>82.1048970775034</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="n">
-        <v>137.553109346779</v>
+        <v>102.169912364953</v>
       </c>
       <c r="B22" t="n">
-        <v>115.813248189277</v>
+        <v>99.2933510214762</v>
       </c>
       <c r="C22" t="n">
-        <v>78.8349450102787</v>
+        <v>87.90638550562529</v>
       </c>
       <c r="D22" t="n">
-        <v>124.081196644278</v>
+        <v>67.5694377915171</v>
       </c>
       <c r="E22" t="n">
-        <v>108.501095605583</v>
+        <v>102.924822135406</v>
       </c>
       <c r="F22" t="n">
-        <v>111.920750894153</v>
+        <v>105.93744331271</v>
       </c>
       <c r="G22" t="n">
-        <v>138.628628729404</v>
+        <v>95.3555632117136</v>
       </c>
       <c r="H22" t="n">
-        <v>101.876349794597</v>
+        <v>122.975116290847</v>
       </c>
       <c r="I22" t="n">
-        <v>82.05384806317871</v>
+        <v>73.9927805673339</v>
       </c>
       <c r="J22" t="n">
-        <v>124.477786044172</v>
+        <v>75.218977371433</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="n">
-        <v>57.7379595572844</v>
+        <v>120.494722921553</v>
       </c>
       <c r="B23" t="n">
-        <v>104.020518115159</v>
+        <v>84.597044032406</v>
       </c>
       <c r="C23" t="n">
-        <v>115.542082198667</v>
+        <v>112.53889113494</v>
       </c>
       <c r="D23" t="n">
-        <v>56.8735787239639</v>
+        <v>103.125869088059</v>
       </c>
       <c r="E23" t="n">
-        <v>74.3899291575765</v>
+        <v>100.373656845868</v>
       </c>
       <c r="F23" t="n">
-        <v>130.860967687651</v>
+        <v>129.839901449671</v>
       </c>
       <c r="G23" t="n">
-        <v>113.164642447581</v>
+        <v>104.726796442986</v>
       </c>
       <c r="H23" t="n">
-        <v>122.719137501055</v>
+        <v>95.93956705435551</v>
       </c>
       <c r="I23" t="n">
-        <v>74.3899291575765</v>
+        <v>79.6295613635388</v>
       </c>
       <c r="J23" t="n">
-        <v>61.6311313802051</v>
+        <v>87.3553910759364</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="n">
-        <v>107.854172470889</v>
+        <v>116.904088345918</v>
       </c>
       <c r="B24" t="n">
-        <v>95.9094057476821</v>
+        <v>93.6145172761989</v>
       </c>
       <c r="C24" t="n">
-        <v>74.0554899542971</v>
+        <v>94.23150941109689</v>
       </c>
       <c r="D24" t="n">
-        <v>88.77221722263739</v>
+        <v>74.5298873046693</v>
       </c>
       <c r="E24" t="n">
-        <v>100.748830925226</v>
+        <v>82.2684696572213</v>
       </c>
       <c r="F24" t="n">
-        <v>117.001475071913</v>
+        <v>98.32673788744729</v>
       </c>
       <c r="G24" t="n">
-        <v>121.233537326496</v>
+        <v>102.429491792484</v>
       </c>
       <c r="H24" t="n">
-        <v>119.495803934441</v>
+        <v>72.3185763908089</v>
       </c>
       <c r="I24" t="n">
-        <v>90.7160233396842</v>
+        <v>75.25349845822539</v>
       </c>
       <c r="J24" t="n">
-        <v>110.831705900001</v>
+        <v>117.295112846294</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="n">
-        <v>125.108063890105</v>
+        <v>113.693097672461</v>
       </c>
       <c r="B25" t="n">
-        <v>112.604296134095</v>
+        <v>100.371511559538</v>
       </c>
       <c r="C25" t="n">
-        <v>111.700149728121</v>
+        <v>114.34798428742</v>
       </c>
       <c r="D25" t="n">
-        <v>88.5095984344255</v>
+        <v>105.726658175739</v>
       </c>
       <c r="E25" t="n">
-        <v>140.025313766913</v>
+        <v>98.6238890203208</v>
       </c>
       <c r="F25" t="n">
-        <v>120.812935780281</v>
+        <v>85.7634933815407</v>
       </c>
       <c r="G25" t="n">
-        <v>110.996577685631</v>
+        <v>111.200173234735</v>
       </c>
       <c r="H25" t="n">
-        <v>117.663330868376</v>
+        <v>96.06503495330109</v>
       </c>
       <c r="I25" t="n">
-        <v>74.6240927826687</v>
+        <v>97.03493842570521</v>
       </c>
       <c r="J25" t="n">
-        <v>102.781846964621</v>
+        <v>80.80097228934299</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="n">
-        <v>114.862491682618</v>
+        <v>114.142783923183</v>
       </c>
       <c r="B26" t="n">
-        <v>117.284812256641</v>
+        <v>52.7841553147028</v>
       </c>
       <c r="C26" t="n">
-        <v>101.913860972588</v>
+        <v>100.876188220322</v>
       </c>
       <c r="D26" t="n">
-        <v>74.6240927826687</v>
+        <v>83.69618904511741</v>
       </c>
       <c r="E26" t="n">
-        <v>97.7946345885621</v>
+        <v>119.353705270588</v>
       </c>
       <c r="F26" t="n">
-        <v>98.52168600159339</v>
+        <v>65.2210788608454</v>
       </c>
       <c r="G26" t="n">
-        <v>112.595636673963</v>
+        <v>73.2706958057026</v>
       </c>
       <c r="H26" t="n">
-        <v>123.343283289382</v>
+        <v>120.669119642538</v>
       </c>
       <c r="I26" t="n">
-        <v>98.6970381047249</v>
+        <v>113.937054397167</v>
       </c>
       <c r="J26" t="n">
-        <v>88.9073063550718</v>
+        <v>90.4431216617896</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="n">
-        <v>118.81019249358</v>
+        <v>102.975168920975</v>
       </c>
       <c r="B27" t="n">
-        <v>108.390913486872</v>
+        <v>118.964162311696</v>
       </c>
       <c r="C27" t="n">
-        <v>110.831705900001</v>
+        <v>80.3653163552755</v>
       </c>
       <c r="D27" t="n">
-        <v>96.7883337887199</v>
+        <v>108.702881844724</v>
       </c>
       <c r="E27" t="n">
-        <v>81.2447907376594</v>
+        <v>116.100252097768</v>
       </c>
       <c r="F27" t="n">
-        <v>113.832909589636</v>
+        <v>51.3206659859354</v>
       </c>
       <c r="G27" t="n">
-        <v>114.030527367663</v>
+        <v>118.907106314807</v>
       </c>
       <c r="H27" t="n">
-        <v>65.6735206109835</v>
+        <v>103.971951604457</v>
       </c>
       <c r="I27" t="n">
-        <v>97.6908199880648</v>
+        <v>88.7115221985173</v>
       </c>
       <c r="J27" t="n">
-        <v>99.4826653932208</v>
+        <v>132.82218963638</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="n">
-        <v>76.2300557850081</v>
+        <v>126.509227084797</v>
       </c>
       <c r="B28" t="n">
-        <v>101.634742984585</v>
+        <v>86.619238031316</v>
       </c>
       <c r="C28" t="n">
-        <v>151.292274933334</v>
+        <v>98.9150954503929</v>
       </c>
       <c r="D28" t="n">
-        <v>73.7473847870472</v>
+        <v>109.668350273633</v>
       </c>
       <c r="E28" t="n">
-        <v>99.2933510214762</v>
+        <v>90.7160233396842</v>
       </c>
       <c r="F28" t="n">
-        <v>105.362557873188</v>
+        <v>105.382937046117</v>
       </c>
       <c r="G28" t="n">
-        <v>113.407964197188</v>
+        <v>84.1568853631144</v>
       </c>
       <c r="H28" t="n">
-        <v>95.93956705435551</v>
+        <v>125.791495989353</v>
       </c>
       <c r="I28" t="n">
-        <v>88.0879048667851</v>
+        <v>73.44959128965129</v>
       </c>
       <c r="J28" t="n">
-        <v>87.1734441003008</v>
+        <v>74.132943373315</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" t="n">
-        <v>105.382937046117</v>
+        <v>137.135866940632</v>
       </c>
       <c r="B29" t="n">
-        <v>90.3853772544808</v>
+        <v>65.4449823688804</v>
       </c>
       <c r="C29" t="n">
-        <v>54.7847910362301</v>
+        <v>126.633821424281</v>
       </c>
       <c r="D29" t="n">
-        <v>114.840649910703</v>
+        <v>92.36829048992909</v>
       </c>
       <c r="E29" t="n">
-        <v>119.820910923757</v>
+        <v>54.0550672388348</v>
       </c>
       <c r="F29" t="n">
-        <v>99.1025875804215</v>
+        <v>98.2772119906606</v>
       </c>
       <c r="G29" t="n">
-        <v>106.813523482624</v>
+        <v>114.36101921741</v>
       </c>
       <c r="H29" t="n">
-        <v>138.666907302361</v>
+        <v>89.3592852355073</v>
       </c>
       <c r="I29" t="n">
-        <v>71.55077143206969</v>
+        <v>123.124150584998</v>
       </c>
       <c r="J29" t="n">
-        <v>114.34798428742</v>
+        <v>105.515303659617</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="n">
-        <v>79.19845463294691</v>
+        <v>70.836067030601</v>
       </c>
       <c r="B30" t="n">
-        <v>94.60878600309751</v>
+        <v>148.203108151691</v>
       </c>
       <c r="C30" t="n">
-        <v>112.34529473504</v>
+        <v>81.6073782935228</v>
       </c>
       <c r="D30" t="n">
-        <v>105.851342961633</v>
+        <v>79.0334553016766</v>
       </c>
       <c r="E30" t="n">
-        <v>93.3476243036276</v>
+        <v>114.623017138233</v>
       </c>
       <c r="F30" t="n">
-        <v>97.8342474859204</v>
+        <v>94.7343889057352</v>
       </c>
       <c r="G30" t="n">
-        <v>144.458102055705</v>
+        <v>134.8257918387</v>
       </c>
       <c r="H30" t="n">
-        <v>81.6998424391879</v>
+        <v>95.4043293168929</v>
       </c>
       <c r="I30" t="n">
-        <v>129.383912001855</v>
+        <v>82.9437947219143</v>
       </c>
       <c r="J30" t="n">
-        <v>123.198735867911</v>
+        <v>93.8945793726102</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" t="n">
-        <v>107.656921741313</v>
+        <v>96.0955950116157</v>
       </c>
       <c r="B31" t="n">
-        <v>101.181257828749</v>
+        <v>74.6290575254139</v>
       </c>
       <c r="C31" t="n">
-        <v>122.672047077566</v>
+        <v>93.91254895396661</v>
       </c>
       <c r="D31" t="n">
-        <v>78.5974361706492</v>
+        <v>104.020518115159</v>
       </c>
       <c r="E31" t="n">
-        <v>113.748134275366</v>
+        <v>86.55709954870569</v>
       </c>
       <c r="F31" t="n">
-        <v>98.9150954503929</v>
+        <v>107.540753197393</v>
       </c>
       <c r="G31" t="n">
-        <v>120.115685038088</v>
+        <v>117.369389358205</v>
       </c>
       <c r="H31" t="n">
-        <v>98.1332366469797</v>
+        <v>118.907106314807</v>
       </c>
       <c r="I31" t="n">
-        <v>112.069013300228</v>
+        <v>76.00429428488521</v>
       </c>
       <c r="J31" t="n">
-        <v>115.14467865213</v>
+        <v>116.904088345918</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" t="n">
-        <v>134.8257918387</v>
+        <v>81.6073782935228</v>
       </c>
       <c r="B32" t="n">
-        <v>145.300505864875</v>
+        <v>112.970067238534</v>
       </c>
       <c r="C32" t="n">
-        <v>102.349778730765</v>
+        <v>82.3661267840812</v>
       </c>
       <c r="D32" t="n">
-        <v>101.195889686134</v>
+        <v>68.29902151971901</v>
       </c>
       <c r="E32" t="n">
-        <v>124.081196644278</v>
+        <v>97.03493842570521</v>
       </c>
       <c r="F32" t="n">
-        <v>135.076527651533</v>
+        <v>103.800773595078</v>
       </c>
       <c r="G32" t="n">
-        <v>76.8573294624322</v>
+        <v>92.36829048992909</v>
       </c>
       <c r="H32" t="n">
-        <v>126.939083677993</v>
+        <v>117.457067372944</v>
       </c>
       <c r="I32" t="n">
-        <v>105.997173919326</v>
+        <v>118.04647518911</v>
       </c>
       <c r="J32" t="n">
-        <v>128.544189529066</v>
+        <v>108.145185453364</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="n">
-        <v>122.719137501055</v>
+        <v>93.375210972934</v>
       </c>
       <c r="B33" t="n">
-        <v>85.654535662106</v>
+        <v>96.140782081521</v>
       </c>
       <c r="C33" t="n">
-        <v>95.4402784939753</v>
+        <v>105.499052435713</v>
       </c>
       <c r="D33" t="n">
-        <v>129.547777081307</v>
+        <v>73.9927805673339</v>
       </c>
       <c r="E33" t="n">
-        <v>101.342672443176</v>
+        <v>113.754524285599</v>
       </c>
       <c r="F33" t="n">
-        <v>98.86377960368699</v>
+        <v>90.19668821508699</v>
       </c>
       <c r="G33" t="n">
-        <v>75.25349845822539</v>
+        <v>96.06503495330109</v>
       </c>
       <c r="H33" t="n">
-        <v>70.797325603882</v>
+        <v>94.00539610795261</v>
       </c>
       <c r="I33" t="n">
-        <v>82.1038367021185</v>
+        <v>108.702881844724</v>
       </c>
       <c r="J33" t="n">
-        <v>103.655073815638</v>
+        <v>80.0189859363913</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="n">
-        <v>93.8978209852648</v>
+        <v>90.3853772544808</v>
       </c>
       <c r="B34" t="n">
-        <v>65.4449823688804</v>
+        <v>134.013083014364</v>
       </c>
       <c r="C34" t="n">
-        <v>101.963797146659</v>
+        <v>131.526292945216</v>
       </c>
       <c r="D34" t="n">
-        <v>109.142525978003</v>
+        <v>86.4546334576215</v>
       </c>
       <c r="E34" t="n">
-        <v>107.231575553672</v>
+        <v>110.285716160104</v>
       </c>
       <c r="F34" t="n">
-        <v>99.89984479089971</v>
+        <v>96.5315677378461</v>
       </c>
       <c r="G34" t="n">
-        <v>82.1048970775034</v>
+        <v>159.277016217243</v>
       </c>
       <c r="H34" t="n">
-        <v>73.87521107049849</v>
+        <v>114.825836444648</v>
       </c>
       <c r="I34" t="n">
-        <v>101.666163392934</v>
+        <v>87.2167692539343</v>
       </c>
       <c r="J34" t="n">
-        <v>67.4609273657607</v>
+        <v>95.6663325616299</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" t="n">
-        <v>105.362557873188</v>
+        <v>123.124150584998</v>
       </c>
       <c r="B35" t="n">
-        <v>96.44564919723101</v>
+        <v>87.90638550562529</v>
       </c>
       <c r="C35" t="n">
-        <v>87.1734441003008</v>
+        <v>103.674649479568</v>
       </c>
       <c r="D35" t="n">
-        <v>121.650759782398</v>
+        <v>91.52100860689281</v>
       </c>
       <c r="E35" t="n">
-        <v>93.01487575318031</v>
+        <v>107.01216753335</v>
       </c>
       <c r="F35" t="n">
-        <v>113.388100414847</v>
+        <v>118.02493341547</v>
       </c>
       <c r="G35" t="n">
-        <v>86.7095808063532</v>
+        <v>112.905030683879</v>
       </c>
       <c r="H35" t="n">
-        <v>84.0744929929146</v>
+        <v>88.4776252011866</v>
       </c>
       <c r="I35" t="n">
-        <v>110.766078372788</v>
+        <v>93.4410786362246</v>
       </c>
       <c r="J35" t="n">
-        <v>82.2713013904788</v>
+        <v>90.6820177408395</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="n">
-        <v>107.446017239482</v>
+        <v>90.4751794345173</v>
       </c>
       <c r="B36" t="n">
-        <v>103.719481060286</v>
+        <v>129.331901773875</v>
       </c>
       <c r="C36" t="n">
-        <v>85.21975558503389</v>
+        <v>90.5330694483301</v>
       </c>
       <c r="D36" t="n">
-        <v>66.7647154621036</v>
+        <v>80.8904186170784</v>
       </c>
       <c r="E36" t="n">
-        <v>113.205382053862</v>
+        <v>131.505293310241</v>
       </c>
       <c r="F36" t="n">
-        <v>104.689998859391</v>
+        <v>75.7245676082687</v>
       </c>
       <c r="G36" t="n">
-        <v>90.8230354891367</v>
+        <v>123.343283289382</v>
       </c>
       <c r="H36" t="n">
-        <v>91.95559011276499</v>
+        <v>97.6908199880648</v>
       </c>
       <c r="I36" t="n">
-        <v>93.375210972934</v>
+        <v>99.1217062316457</v>
       </c>
       <c r="J36" t="n">
-        <v>93.93927745224801</v>
+        <v>94.00539610795261</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" t="n">
-        <v>105.918601923032</v>
+        <v>83.3808588133855</v>
       </c>
       <c r="B37" t="n">
-        <v>124.641230986405</v>
+        <v>75.7245676082687</v>
       </c>
       <c r="C37" t="n">
-        <v>72.12214961986091</v>
+        <v>101.908092101443</v>
       </c>
       <c r="D37" t="n">
-        <v>76.8421319692862</v>
+        <v>105.098364481529</v>
       </c>
       <c r="E37" t="n">
-        <v>107.540753197393</v>
+        <v>124.533773422402</v>
       </c>
       <c r="F37" t="n">
-        <v>98.1332366469797</v>
+        <v>82.1038367021185</v>
       </c>
       <c r="G37" t="n">
-        <v>111.834569625483</v>
+        <v>114.623017138233</v>
       </c>
       <c r="H37" t="n">
-        <v>63.6349989246749</v>
+        <v>74.6290575254139</v>
       </c>
       <c r="I37" t="n">
-        <v>89.5333816586833</v>
+        <v>83.86145690228</v>
       </c>
       <c r="J37" t="n">
-        <v>117.569187201605</v>
+        <v>77.8035731942802</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="n">
-        <v>111.142266053493</v>
+        <v>81.0995286575607</v>
       </c>
       <c r="B38" t="n">
-        <v>77.7742150435481</v>
+        <v>58.3943225960823</v>
       </c>
       <c r="C38" t="n">
-        <v>86.4117891418738</v>
+        <v>85.7634933815407</v>
       </c>
       <c r="D38" t="n">
-        <v>103.984758982876</v>
+        <v>105.020147321501</v>
       </c>
       <c r="E38" t="n">
-        <v>131.608986686725</v>
+        <v>90.9237693501252</v>
       </c>
       <c r="F38" t="n">
-        <v>52.9897361863582</v>
+        <v>115.356299819609</v>
       </c>
       <c r="G38" t="n">
-        <v>87.63714373671669</v>
+        <v>82.2684696572213</v>
       </c>
       <c r="H38" t="n">
-        <v>101.869898153892</v>
+        <v>133.456301031996</v>
       </c>
       <c r="I38" t="n">
-        <v>103.212774914642</v>
+        <v>102.622604436166</v>
       </c>
       <c r="J38" t="n">
-        <v>133.31382850837</v>
+        <v>80.6953258203832</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="n">
-        <v>120.636557559791</v>
+        <v>129.383912001855</v>
       </c>
       <c r="B39" t="n">
-        <v>85.9819463969751</v>
+        <v>97.59583323882499</v>
       </c>
       <c r="C39" t="n">
-        <v>115.678156645278</v>
+        <v>113.754524285599</v>
       </c>
       <c r="D39" t="n">
-        <v>128.06678970663</v>
+        <v>76.8573294624322</v>
       </c>
       <c r="E39" t="n">
-        <v>109.560818294499</v>
+        <v>103.800773595078</v>
       </c>
       <c r="F39" t="n">
-        <v>70.836067030601</v>
+        <v>105.337769701909</v>
       </c>
       <c r="G39" t="n">
-        <v>114.424475635794</v>
+        <v>100.083891460338</v>
       </c>
       <c r="H39" t="n">
-        <v>71.8520368689823</v>
+        <v>120.10198815314</v>
       </c>
       <c r="I39" t="n">
-        <v>101.908092101443</v>
+        <v>117.295112846294</v>
       </c>
       <c r="J39" t="n">
-        <v>86.18638974872729</v>
+        <v>104.401500567048</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="n">
-        <v>83.84771967115439</v>
+        <v>98.09740553248611</v>
       </c>
       <c r="B40" t="n">
-        <v>71.68392664347481</v>
+        <v>100.748830925226</v>
       </c>
       <c r="C40" t="n">
-        <v>88.5414084064482</v>
+        <v>81.0995286575607</v>
       </c>
       <c r="D40" t="n">
-        <v>67.75003699306831</v>
+        <v>113.360237690944</v>
       </c>
       <c r="E40" t="n">
-        <v>72.53442724719559</v>
+        <v>99.4826653932208</v>
       </c>
       <c r="F40" t="n">
-        <v>116.953660997717</v>
+        <v>110.315553458508</v>
       </c>
       <c r="G40" t="n">
-        <v>85.1156631195078</v>
+        <v>75.3901864242801</v>
       </c>
       <c r="H40" t="n">
-        <v>108.390913486872</v>
+        <v>80.42209754038301</v>
       </c>
       <c r="I40" t="n">
-        <v>68.5093339733661</v>
+        <v>72.91592906685921</v>
       </c>
       <c r="J40" t="n">
-        <v>82.95317339434369</v>
+        <v>140.056516068091</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" t="n">
-        <v>73.3684632295831</v>
+        <v>105.918601923032</v>
       </c>
       <c r="B41" t="n">
-        <v>107.231575553672</v>
+        <v>102.243290651221</v>
       </c>
       <c r="C41" t="n">
-        <v>92.18119255354389</v>
+        <v>84.97348741589489</v>
       </c>
       <c r="D41" t="n">
-        <v>88.7115221985173</v>
+        <v>81.6998424391879</v>
       </c>
       <c r="E41" t="n">
-        <v>107.6856777148</v>
+        <v>91.87035113138769</v>
       </c>
       <c r="F41" t="n">
-        <v>114.061806335318</v>
+        <v>98.6357304551902</v>
       </c>
       <c r="G41" t="n">
-        <v>77.82176004874739</v>
+        <v>135.745256579676</v>
       </c>
       <c r="H41" t="n">
-        <v>116.486143912537</v>
+        <v>120.85012432267</v>
       </c>
       <c r="I41" t="n">
-        <v>75.2345741057845</v>
+        <v>92.7992875057912</v>
       </c>
       <c r="J41" t="n">
-        <v>101.131993677025</v>
+        <v>86.13841618634331</v>
       </c>
     </row>
   </sheetData>
@@ -4120,1662 +4123,1662 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="n">
-        <v>53.674307380248</v>
+        <v>108.390913486872</v>
       </c>
       <c r="B2" t="n">
-        <v>86.6997774047298</v>
+        <v>115.163454799811</v>
       </c>
       <c r="C2" t="n">
-        <v>59.8894869001685</v>
+        <v>63.4964914061943</v>
       </c>
       <c r="D2" t="n">
-        <v>127.137376606107</v>
+        <v>106.450386577644</v>
       </c>
       <c r="E2" t="n">
-        <v>96.7119989530987</v>
+        <v>91.1947016761054</v>
       </c>
       <c r="F2" t="n">
-        <v>111.142356856495</v>
+        <v>98.1603121473521</v>
       </c>
       <c r="G2" t="n">
-        <v>77.4210050766919</v>
+        <v>95.9094057476821</v>
       </c>
       <c r="H2" t="n">
-        <v>107.084894194125</v>
+        <v>133.05906015884</v>
       </c>
       <c r="I2" t="n">
-        <v>108.441445290588</v>
+        <v>78.0631384249177</v>
       </c>
       <c r="J2" t="n">
-        <v>111.445407802491</v>
+        <v>100.693959572377</v>
       </c>
       <c r="M2" t="n">
-        <v>98.22545216649488</v>
+        <v>104.7549435728663</v>
       </c>
       <c r="N2" t="n">
-        <v>24.07015295040209</v>
+        <v>19.02722412651769</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="n">
-        <v>93.3403008724335</v>
+        <v>90.5649504408977</v>
       </c>
       <c r="B3" t="n">
-        <v>113.205382053862</v>
+        <v>99.96981757641289</v>
       </c>
       <c r="C3" t="n">
-        <v>114.030527367663</v>
+        <v>76.2300557850081</v>
       </c>
       <c r="D3" t="n">
-        <v>112.723607122747</v>
+        <v>96.10346406878151</v>
       </c>
       <c r="E3" t="n">
-        <v>52.9897361863582</v>
+        <v>103.674649479568</v>
       </c>
       <c r="F3" t="n">
-        <v>82.3661267840812</v>
+        <v>58.6300363144334</v>
       </c>
       <c r="G3" t="n">
-        <v>104.083552297358</v>
+        <v>97.1140160699516</v>
       </c>
       <c r="H3" t="n">
-        <v>102.78652488269</v>
+        <v>91.1771995077554</v>
       </c>
       <c r="I3" t="n">
-        <v>87.50832040327001</v>
+        <v>106.579151916622</v>
       </c>
       <c r="J3" t="n">
-        <v>94.844610003711</v>
+        <v>98.2005264980896</v>
       </c>
       <c r="M3" t="n">
-        <v>102.0702736681576</v>
+        <v>105.5185799998215</v>
       </c>
       <c r="N3" t="n">
-        <v>19.4851584042751</v>
+        <v>18.22436461059744</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="n">
-        <v>65.2210788608454</v>
+        <v>105.515303659617</v>
       </c>
       <c r="B4" t="n">
-        <v>90.4176638960016</v>
+        <v>87.12242396608551</v>
       </c>
       <c r="C4" t="n">
-        <v>82.1048970775034</v>
+        <v>94.81922320445381</v>
       </c>
       <c r="D4" t="n">
-        <v>69.288937865291</v>
+        <v>117.507541345061</v>
       </c>
       <c r="E4" t="n">
-        <v>100.038527707651</v>
+        <v>111.920750894153</v>
       </c>
       <c r="F4" t="n">
-        <v>100.748830925226</v>
+        <v>73.87521107049849</v>
       </c>
       <c r="G4" t="n">
-        <v>99.9109109316161</v>
+        <v>81.6073782935228</v>
       </c>
       <c r="H4" t="n">
-        <v>97.0423109254225</v>
+        <v>138.443319466398</v>
       </c>
       <c r="I4" t="n">
-        <v>61.6311313802051</v>
+        <v>96.44564919723101</v>
       </c>
       <c r="J4" t="n">
-        <v>122.014044768571</v>
+        <v>106.358380940111</v>
       </c>
       <c r="M4" t="n">
-        <v>100.7310552174202</v>
+        <v>96.09365468777791</v>
       </c>
       <c r="N4" t="n">
-        <v>20.25554401009795</v>
+        <v>19.8190418902793</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="n">
-        <v>141.844711702953</v>
+        <v>92.5233351776703</v>
       </c>
       <c r="B5" t="n">
-        <v>115.91423539205</v>
+        <v>130.434964302038</v>
       </c>
       <c r="C5" t="n">
-        <v>86.1260088679152</v>
+        <v>104.726796442986</v>
       </c>
       <c r="D5" t="n">
-        <v>73.0416629418992</v>
+        <v>108.935552972673</v>
       </c>
       <c r="E5" t="n">
-        <v>110.543551173276</v>
+        <v>113.243162300978</v>
       </c>
       <c r="F5" t="n">
-        <v>87.2167692539343</v>
+        <v>110.342104661097</v>
       </c>
       <c r="G5" t="n">
-        <v>86.6925418993186</v>
+        <v>107.231575553672</v>
       </c>
       <c r="H5" t="n">
-        <v>99.89984479089971</v>
+        <v>131.608986686725</v>
       </c>
       <c r="I5" t="n">
-        <v>114.177350355362</v>
+        <v>112.604296134095</v>
       </c>
       <c r="J5" t="n">
-        <v>103.655073815638</v>
+        <v>96.7096540192012</v>
       </c>
       <c r="M5" t="n">
-        <v>103.8247809654367</v>
+        <v>99.99926730119107</v>
       </c>
       <c r="N5" t="n">
-        <v>20.82348820852595</v>
+        <v>22.43143455366824</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="n">
-        <v>116.090262288112</v>
+        <v>95.2541714605547</v>
       </c>
       <c r="B6" t="n">
-        <v>51.3206659859354</v>
+        <v>117.629819324523</v>
       </c>
       <c r="C6" t="n">
-        <v>96.0052425942681</v>
+        <v>87.50832040327001</v>
       </c>
       <c r="D6" t="n">
-        <v>131.329703237013</v>
+        <v>93.01487575318031</v>
       </c>
       <c r="E6" t="n">
-        <v>114.142783923183</v>
+        <v>133.499035453513</v>
       </c>
       <c r="F6" t="n">
-        <v>102.924822135406</v>
+        <v>76.0569330963425</v>
       </c>
       <c r="G6" t="n">
-        <v>69.466895488597</v>
+        <v>62.2567835118844</v>
       </c>
       <c r="H6" t="n">
-        <v>117.507541345061</v>
+        <v>139.703635294026</v>
       </c>
       <c r="I6" t="n">
-        <v>91.34209938245471</v>
+        <v>110.831705900001</v>
       </c>
       <c r="J6" t="n">
-        <v>96.67179059738611</v>
+        <v>102.978956785878</v>
       </c>
       <c r="M6" t="n">
-        <v>99.46820584923523</v>
+        <v>103.5552811233849</v>
       </c>
       <c r="N6" t="n">
-        <v>22.70477905114636</v>
+        <v>22.95216610429853</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="n">
-        <v>75.3628245017816</v>
+        <v>109.086586786159</v>
       </c>
       <c r="B7" t="n">
-        <v>94.60878600309751</v>
+        <v>110.543551173276</v>
       </c>
       <c r="C7" t="n">
-        <v>79.0283741236708</v>
+        <v>72.7246698579667</v>
       </c>
       <c r="D7" t="n">
-        <v>120.024808022455</v>
+        <v>115.91423539205</v>
       </c>
       <c r="E7" t="n">
-        <v>83.9116344663161</v>
+        <v>100.860780839578</v>
       </c>
       <c r="F7" t="n">
-        <v>89.3457975117738</v>
+        <v>118.546813005314</v>
       </c>
       <c r="G7" t="n">
-        <v>131.383207513496</v>
+        <v>81.2447907376594</v>
       </c>
       <c r="H7" t="n">
-        <v>94.81922320445381</v>
+        <v>111.788339751882</v>
       </c>
       <c r="I7" t="n">
-        <v>104.208885468867</v>
+        <v>110.315553458508</v>
       </c>
       <c r="J7" t="n">
-        <v>136.742412768047</v>
+        <v>103.95913028829</v>
       </c>
       <c r="M7" t="n">
-        <v>99.89682174807706</v>
+        <v>94.40666466008605</v>
       </c>
       <c r="N7" t="n">
-        <v>16.39855272017923</v>
+        <v>18.12901019412957</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="n">
-        <v>80.6843464378456</v>
+        <v>114.061806335318</v>
       </c>
       <c r="B8" t="n">
-        <v>76.8573294624322</v>
+        <v>121.650759782398</v>
       </c>
       <c r="C8" t="n">
-        <v>82.1802061843124</v>
+        <v>93.8945793726102</v>
       </c>
       <c r="D8" t="n">
-        <v>109.291212547948</v>
+        <v>88.003167460874</v>
       </c>
       <c r="E8" t="n">
-        <v>107.084894194125</v>
+        <v>119.80773607755</v>
       </c>
       <c r="F8" t="n">
-        <v>75.3901864242801</v>
+        <v>120.669119642538</v>
       </c>
       <c r="G8" t="n">
+        <v>101.781518892614</v>
+      </c>
+      <c r="H8" t="n">
+        <v>101.195889686134</v>
+      </c>
+      <c r="I8" t="n">
+        <v>73.3684632295831</v>
+      </c>
+      <c r="J8" t="n">
         <v>107.816000904233</v>
       </c>
-      <c r="H8" t="n">
-        <v>102.067622035644</v>
-      </c>
-      <c r="I8" t="n">
-        <v>95.0834553988455</v>
-      </c>
-      <c r="J8" t="n">
-        <v>108.145185453364</v>
-      </c>
       <c r="M8" t="n">
-        <v>95.58311396453375</v>
+        <v>94.09162489884879</v>
       </c>
       <c r="N8" t="n">
-        <v>19.11075973470524</v>
+        <v>23.83216783028331</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="n">
-        <v>108.380822307989</v>
+        <v>87.1245457767598</v>
       </c>
       <c r="B9" t="n">
-        <v>119.510558692758</v>
+        <v>86.55709954870569</v>
       </c>
       <c r="C9" t="n">
-        <v>119.720943871803</v>
+        <v>100.212071105696</v>
       </c>
       <c r="D9" t="n">
-        <v>113.360237690944</v>
+        <v>78.4173565703926</v>
       </c>
       <c r="E9" t="n">
-        <v>86.6997774047298</v>
+        <v>109.773410513137</v>
       </c>
       <c r="F9" t="n">
-        <v>90.9237693501252</v>
+        <v>78.4173565703926</v>
       </c>
       <c r="G9" t="n">
-        <v>85.81543858806531</v>
+        <v>110.784442196858</v>
       </c>
       <c r="H9" t="n">
-        <v>88.9073063550718</v>
+        <v>98.683114437163</v>
       </c>
       <c r="I9" t="n">
-        <v>102.781846964621</v>
+        <v>95.2541714605547</v>
       </c>
       <c r="J9" t="n">
-        <v>107.751100839436</v>
+        <v>79.0334553016766</v>
       </c>
       <c r="M9" t="n">
-        <v>100.6258524699319</v>
+        <v>99.09111051538294</v>
       </c>
       <c r="N9" t="n">
-        <v>19.0277187649613</v>
+        <v>19.65146747698165</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="n">
-        <v>91.1947016761054</v>
+        <v>98.1785387625749</v>
       </c>
       <c r="B10" t="n">
-        <v>86.7942574394811</v>
+        <v>119.361122336007</v>
       </c>
       <c r="C10" t="n">
-        <v>91.8687070501997</v>
+        <v>97.65501412678</v>
       </c>
       <c r="D10" t="n">
-        <v>92.7992875057912</v>
+        <v>123.904695810247</v>
       </c>
       <c r="E10" t="n">
-        <v>84.9423845340137</v>
+        <v>133.506247080469</v>
       </c>
       <c r="F10" t="n">
-        <v>105.93744331271</v>
+        <v>77.7559002217025</v>
       </c>
       <c r="G10" t="n">
-        <v>130.475925142712</v>
+        <v>106.644788432915</v>
       </c>
       <c r="H10" t="n">
-        <v>71.68392664347481</v>
+        <v>94.7343889057352</v>
       </c>
       <c r="I10" t="n">
-        <v>99.96981757641289</v>
+        <v>107.386631290566</v>
       </c>
       <c r="J10" t="n">
-        <v>117.457067372944</v>
+        <v>105.49282327551</v>
       </c>
       <c r="M10" t="n">
-        <v>102.8505649836298</v>
+        <v>97.53875952208</v>
       </c>
       <c r="N10" t="n">
-        <v>17.77761592703661</v>
+        <v>22.78837486152838</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="n">
-        <v>83.9707197596672</v>
+        <v>87.7563445409376</v>
       </c>
       <c r="B11" t="n">
-        <v>67.5694377915171</v>
+        <v>122.719137501055</v>
       </c>
       <c r="C11" t="n">
-        <v>131.055049142915</v>
+        <v>72.12214961986091</v>
       </c>
       <c r="D11" t="n">
-        <v>98.6238890203208</v>
+        <v>123.580792614804</v>
       </c>
       <c r="E11" t="n">
-        <v>86.13841618634331</v>
+        <v>112.998025701407</v>
       </c>
       <c r="F11" t="n">
-        <v>120.494722921553</v>
+        <v>112.370608578525</v>
       </c>
       <c r="G11" t="n">
-        <v>110.728407887602</v>
+        <v>94.34661224658549</v>
       </c>
       <c r="H11" t="n">
-        <v>139.978652403396</v>
+        <v>74.3899291575765</v>
       </c>
       <c r="I11" t="n">
-        <v>79.9333897374695</v>
+        <v>110.344034610054</v>
       </c>
       <c r="J11" t="n">
-        <v>105.899315129141</v>
+        <v>101.805252674135</v>
       </c>
       <c r="M11" t="n">
-        <v>108.1206834798976</v>
+        <v>97.925839124945</v>
       </c>
       <c r="N11" t="n">
-        <v>16.68619742284372</v>
+        <v>19.58472023162554</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="n">
-        <v>71.8520368689823</v>
+        <v>89.3592852355073</v>
       </c>
       <c r="B12" t="n">
-        <v>109.815858026725</v>
+        <v>80.0189859363913</v>
       </c>
       <c r="C12" t="n">
-        <v>121.22083560851</v>
+        <v>72.91592906685921</v>
       </c>
       <c r="D12" t="n">
-        <v>92.75966786471049</v>
+        <v>120.024808022455</v>
       </c>
       <c r="E12" t="n">
-        <v>97.3559501056064</v>
+        <v>120.10198815314</v>
       </c>
       <c r="F12" t="n">
-        <v>112.133573594463</v>
+        <v>109.643959951259</v>
       </c>
       <c r="G12" t="n">
-        <v>85.300318568129</v>
+        <v>77.7316761371236</v>
       </c>
       <c r="H12" t="n">
-        <v>112.370608578525</v>
+        <v>120.636557559791</v>
       </c>
       <c r="I12" t="n">
-        <v>87.3553910759364</v>
+        <v>81.9646387118631</v>
       </c>
       <c r="J12" t="n">
-        <v>109.753789677891</v>
+        <v>67.3282608678565</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="n">
-        <v>57.9855234858293</v>
+        <v>59.6368116219104</v>
       </c>
       <c r="B13" t="n">
-        <v>117.19320749604</v>
+        <v>72.246600269933</v>
       </c>
       <c r="C13" t="n">
-        <v>135.076527651533</v>
+        <v>131.526292945216</v>
       </c>
       <c r="D13" t="n">
-        <v>120.913435991714</v>
+        <v>100.212071105696</v>
       </c>
       <c r="E13" t="n">
-        <v>112.069013300228</v>
+        <v>98.2220702939143</v>
       </c>
       <c r="F13" t="n">
-        <v>86.4117891418738</v>
+        <v>105.899315129141</v>
       </c>
       <c r="G13" t="n">
-        <v>115.678156645278</v>
+        <v>114.061806335318</v>
       </c>
       <c r="H13" t="n">
-        <v>88.69438713264979</v>
+        <v>109.668350273633</v>
       </c>
       <c r="I13" t="n">
-        <v>117.284812256641</v>
+        <v>102.625301967853</v>
       </c>
       <c r="J13" t="n">
-        <v>76.8809167709255</v>
+        <v>123.343283289382</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="n">
+        <v>135.958461966508</v>
+      </c>
+      <c r="B14" t="n">
+        <v>72.6744159895253</v>
+      </c>
+      <c r="C14" t="n">
+        <v>97.7603683807402</v>
+      </c>
+      <c r="D14" t="n">
+        <v>82.1619433165497</v>
+      </c>
+      <c r="E14" t="n">
         <v>95.6663325616299</v>
       </c>
-      <c r="B14" t="n">
-        <v>99.96981757641289</v>
-      </c>
-      <c r="C14" t="n">
-        <v>88.4776252011866</v>
-      </c>
-      <c r="D14" t="n">
-        <v>131.505293310241</v>
-      </c>
-      <c r="E14" t="n">
-        <v>59.8894869001685</v>
-      </c>
       <c r="F14" t="n">
-        <v>64.7525947771864</v>
+        <v>99.11091051288579</v>
       </c>
       <c r="G14" t="n">
-        <v>73.2706958057026</v>
+        <v>154.202450160038</v>
       </c>
       <c r="H14" t="n">
-        <v>68.29902151971901</v>
+        <v>79.62074153745409</v>
       </c>
       <c r="I14" t="n">
-        <v>142.222542576026</v>
+        <v>90.3094204979177</v>
       </c>
       <c r="J14" t="n">
-        <v>112.131724608374</v>
+        <v>87.90638550562529</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="n">
-        <v>106.079333557345</v>
+        <v>105.499052435713</v>
       </c>
       <c r="B15" t="n">
-        <v>113.937054397167</v>
+        <v>130.403572587724</v>
       </c>
       <c r="C15" t="n">
-        <v>106.398360507584</v>
+        <v>113.748134275366</v>
       </c>
       <c r="D15" t="n">
-        <v>112.321039434385</v>
+        <v>104.157865205203</v>
       </c>
       <c r="E15" t="n">
-        <v>59.5941157593928</v>
+        <v>139.510685938072</v>
       </c>
       <c r="F15" t="n">
-        <v>107.01216753335</v>
+        <v>94.5147860961077</v>
       </c>
       <c r="G15" t="n">
-        <v>103.236016978385</v>
+        <v>127.3499995083</v>
       </c>
       <c r="H15" t="n">
-        <v>81.5156097929501</v>
+        <v>112.723607122747</v>
       </c>
       <c r="I15" t="n">
-        <v>112.069013300228</v>
+        <v>107.540753197393</v>
       </c>
       <c r="J15" t="n">
-        <v>113.478852376085</v>
+        <v>82.45011221675691</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="n">
-        <v>105.382937046117</v>
+        <v>94.844610003711</v>
       </c>
       <c r="B16" t="n">
-        <v>107.6856777148</v>
+        <v>78.3491451006758</v>
       </c>
       <c r="C16" t="n">
-        <v>107.773686984917</v>
+        <v>105.997173919326</v>
       </c>
       <c r="D16" t="n">
-        <v>104.67837693562</v>
+        <v>67.6607734124204</v>
       </c>
       <c r="E16" t="n">
-        <v>102.924822135406</v>
+        <v>98.09292206537</v>
       </c>
       <c r="F16" t="n">
-        <v>102.625301967853</v>
+        <v>96.7119989530987</v>
       </c>
       <c r="G16" t="n">
-        <v>85.9819463969751</v>
+        <v>86.85234275864291</v>
       </c>
       <c r="H16" t="n">
-        <v>80.8687692396655</v>
+        <v>119.385124895474</v>
       </c>
       <c r="I16" t="n">
-        <v>110.938110965641</v>
+        <v>108.002854413903</v>
       </c>
       <c r="J16" t="n">
-        <v>111.920750894153</v>
+        <v>74.276482486286</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="n">
-        <v>56.9427179163874</v>
+        <v>138.628628729404</v>
       </c>
       <c r="B17" t="n">
-        <v>93.91254895396661</v>
+        <v>75.25349845822539</v>
       </c>
       <c r="C17" t="n">
-        <v>127.137376606107</v>
+        <v>89.2504894982854</v>
       </c>
       <c r="D17" t="n">
-        <v>93.8978209852648</v>
+        <v>63.6349989246749</v>
       </c>
       <c r="E17" t="n">
-        <v>138.666907302361</v>
+        <v>108.798629875953</v>
       </c>
       <c r="F17" t="n">
-        <v>110.342104661097</v>
+        <v>85.21975558503389</v>
       </c>
       <c r="G17" t="n">
-        <v>101.666163392934</v>
+        <v>139.920609458107</v>
       </c>
       <c r="H17" t="n">
-        <v>61.6311313802051</v>
+        <v>100.737135574829</v>
       </c>
       <c r="I17" t="n">
-        <v>94.81922320445381</v>
+        <v>113.832909589636</v>
       </c>
       <c r="J17" t="n">
-        <v>96.98682394452609</v>
+        <v>114.939753870225</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="n">
-        <v>90.9640742315576</v>
+        <v>63.6349989246749</v>
       </c>
       <c r="B18" t="n">
-        <v>121.934339003526</v>
+        <v>137.553109346779</v>
       </c>
       <c r="C18" t="n">
-        <v>91.31041660142409</v>
+        <v>72.6744159895253</v>
       </c>
       <c r="D18" t="n">
-        <v>135.713288724195</v>
+        <v>59.5941157593928</v>
       </c>
       <c r="E18" t="n">
-        <v>133.300457362705</v>
+        <v>124.693654991676</v>
       </c>
       <c r="F18" t="n">
-        <v>99.4050409276965</v>
+        <v>62.1296784692623</v>
       </c>
       <c r="G18" t="n">
-        <v>114.061806335318</v>
+        <v>102.44254011496</v>
       </c>
       <c r="H18" t="n">
-        <v>80.8145113087877</v>
+        <v>133.499035453513</v>
       </c>
       <c r="I18" t="n">
-        <v>86.9154965556516</v>
+        <v>123.352898294027</v>
       </c>
       <c r="J18" t="n">
-        <v>102.217867715665</v>
+        <v>88.77221722263739</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="n">
-        <v>86.18638974872729</v>
+        <v>79.37844496320351</v>
       </c>
       <c r="B19" t="n">
-        <v>99.6240548820232</v>
+        <v>123.724369717283</v>
       </c>
       <c r="C19" t="n">
-        <v>76.8421319692862</v>
+        <v>130.848932927859</v>
       </c>
       <c r="D19" t="n">
-        <v>114.497376243853</v>
+        <v>102.978956785878</v>
       </c>
       <c r="E19" t="n">
-        <v>87.091040197526</v>
+        <v>96.0052425942681</v>
       </c>
       <c r="F19" t="n">
-        <v>105.098364481529</v>
+        <v>98.4551549059527</v>
       </c>
       <c r="G19" t="n">
-        <v>97.65379265299821</v>
+        <v>23.5411312142934</v>
       </c>
       <c r="H19" t="n">
-        <v>123.580792614804</v>
+        <v>66.7647154621036</v>
       </c>
       <c r="I19" t="n">
-        <v>120.636557559791</v>
+        <v>90.5174032942228</v>
       </c>
       <c r="J19" t="n">
-        <v>90.3853772544808</v>
+        <v>59.6368116219104</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="n">
-        <v>128.544189529066</v>
+        <v>131.438790327161</v>
       </c>
       <c r="B20" t="n">
-        <v>108.131202433963</v>
+        <v>127.375846347343</v>
       </c>
       <c r="C20" t="n">
-        <v>75.25349845822539</v>
+        <v>139.920609458107</v>
       </c>
       <c r="D20" t="n">
-        <v>139.978652403396</v>
+        <v>81.2049343410842</v>
       </c>
       <c r="E20" t="n">
-        <v>98.52168600159339</v>
+        <v>58.3943225960823</v>
       </c>
       <c r="F20" t="n">
-        <v>96.44564919723101</v>
+        <v>88.2171204845707</v>
       </c>
       <c r="G20" t="n">
-        <v>83.3808588133855</v>
+        <v>109.028461716704</v>
       </c>
       <c r="H20" t="n">
-        <v>102.629332785704</v>
+        <v>126.732136476781</v>
       </c>
       <c r="I20" t="n">
-        <v>123.124150584998</v>
+        <v>109.910750107961</v>
       </c>
       <c r="J20" t="n">
-        <v>112.069013300228</v>
+        <v>88.8342026941244</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="n">
-        <v>127.241945964959</v>
+        <v>132.607790003275</v>
       </c>
       <c r="B21" t="n">
-        <v>102.629332785704</v>
+        <v>99.62441697828569</v>
       </c>
       <c r="C21" t="n">
-        <v>125.206941966994</v>
+        <v>91.31041660142409</v>
       </c>
       <c r="D21" t="n">
-        <v>108.025121914088</v>
+        <v>74.0554899542971</v>
       </c>
       <c r="E21" t="n">
-        <v>93.8110650943905</v>
+        <v>56.8735787239639</v>
       </c>
       <c r="F21" t="n">
-        <v>106.450386577644</v>
+        <v>92.4720468229399</v>
       </c>
       <c r="G21" t="n">
-        <v>74.2686956551709</v>
+        <v>99.97728900203251</v>
       </c>
       <c r="H21" t="n">
-        <v>77.7316761371236</v>
+        <v>92.0259005554302</v>
       </c>
       <c r="I21" t="n">
-        <v>114.331384078815</v>
+        <v>120.674698689802</v>
       </c>
       <c r="J21" t="n">
-        <v>108.025121914088</v>
+        <v>94.6278238938305</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="n">
-        <v>58.3943225960823</v>
+        <v>141.968407870617</v>
       </c>
       <c r="B22" t="n">
-        <v>94.5147860961077</v>
+        <v>117.543896211415</v>
       </c>
       <c r="C22" t="n">
-        <v>100.422966627155</v>
+        <v>92.2943792116118</v>
       </c>
       <c r="D22" t="n">
-        <v>83.0938166144665</v>
+        <v>87.9797454301636</v>
       </c>
       <c r="E22" t="n">
-        <v>130.860967687651</v>
+        <v>122.345877222426</v>
       </c>
       <c r="F22" t="n">
-        <v>79.2155262093427</v>
+        <v>95.6663325616299</v>
       </c>
       <c r="G22" t="n">
-        <v>98.2005264980896</v>
+        <v>87.3357297803457</v>
       </c>
       <c r="H22" t="n">
-        <v>135.604484514892</v>
+        <v>78.0631384249177</v>
       </c>
       <c r="I22" t="n">
-        <v>92.470062521342</v>
+        <v>97.8342474859204</v>
       </c>
       <c r="J22" t="n">
-        <v>113.754524285599</v>
+        <v>97.59583323882499</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="n">
-        <v>133.499035453513</v>
+        <v>104.401500567048</v>
       </c>
       <c r="B23" t="n">
-        <v>94.00539610795261</v>
+        <v>114.623017138233</v>
       </c>
       <c r="C23" t="n">
-        <v>70.797325603882</v>
+        <v>121.22083560851</v>
       </c>
       <c r="D23" t="n">
-        <v>97.0423109254225</v>
+        <v>114.331384078815</v>
       </c>
       <c r="E23" t="n">
-        <v>107.751100839436</v>
+        <v>129.922209500563</v>
       </c>
       <c r="F23" t="n">
-        <v>112.604296134095</v>
+        <v>84.548479628463</v>
       </c>
       <c r="G23" t="n">
-        <v>101.527712661778</v>
+        <v>84.0744929929146</v>
       </c>
       <c r="H23" t="n">
-        <v>102.781846964621</v>
+        <v>73.3684632295831</v>
       </c>
       <c r="I23" t="n">
-        <v>92.5726507331038</v>
+        <v>132.82218963638</v>
       </c>
       <c r="J23" t="n">
-        <v>113.693097672461</v>
+        <v>138.443319466398</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="n">
-        <v>51.3206659859354</v>
+        <v>108.145185453364</v>
       </c>
       <c r="B24" t="n">
-        <v>96.4293455585276</v>
+        <v>148.142999564099</v>
       </c>
       <c r="C24" t="n">
-        <v>69.466895488597</v>
+        <v>103.246173502391</v>
       </c>
       <c r="D24" t="n">
-        <v>106.083023271254</v>
+        <v>86.55709954870569</v>
       </c>
       <c r="E24" t="n">
-        <v>122.619332492881</v>
+        <v>101.963797146659</v>
       </c>
       <c r="F24" t="n">
-        <v>113.360237690944</v>
+        <v>122.954191793234</v>
       </c>
       <c r="G24" t="n">
-        <v>64.7525947771864</v>
+        <v>117.628303127307</v>
       </c>
       <c r="H24" t="n">
-        <v>108.501095605583</v>
+        <v>101.131993677025</v>
       </c>
       <c r="I24" t="n">
-        <v>59.8894869001685</v>
+        <v>133.506247080469</v>
       </c>
       <c r="J24" t="n">
-        <v>101.869898153892</v>
+        <v>69.03421547404081</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="n">
-        <v>72.12214961986091</v>
+        <v>113.86646551181</v>
       </c>
       <c r="B25" t="n">
-        <v>135.958461966508</v>
+        <v>108.957766816784</v>
       </c>
       <c r="C25" t="n">
-        <v>90.19668821508699</v>
+        <v>104.744070962189</v>
       </c>
       <c r="D25" t="n">
-        <v>56.7263960267725</v>
+        <v>113.360237690944</v>
       </c>
       <c r="E25" t="n">
-        <v>47.7985800535743</v>
+        <v>79.25338435948539</v>
       </c>
       <c r="F25" t="n">
-        <v>113.921869327167</v>
+        <v>67.9981732724972</v>
       </c>
       <c r="G25" t="n">
-        <v>83.98852173551791</v>
+        <v>64.7525947771864</v>
       </c>
       <c r="H25" t="n">
-        <v>83.9116344663161</v>
+        <v>72.30548204805881</v>
       </c>
       <c r="I25" t="n">
-        <v>84.7659723582769</v>
+        <v>127.137376606107</v>
       </c>
       <c r="J25" t="n">
-        <v>112.34529473504</v>
+        <v>76.57964491828081</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="n">
-        <v>107.816000904233</v>
+        <v>97.8342474859204</v>
       </c>
       <c r="B26" t="n">
-        <v>79.8373939019649</v>
+        <v>101.908092101443</v>
       </c>
       <c r="C26" t="n">
-        <v>118.81019249358</v>
+        <v>99.1025875804215</v>
       </c>
       <c r="D26" t="n">
-        <v>73.9927805673339</v>
+        <v>71.211853580056</v>
       </c>
       <c r="E26" t="n">
-        <v>90.4431216617896</v>
+        <v>105.020147321501</v>
       </c>
       <c r="F26" t="n">
-        <v>105.851342961633</v>
+        <v>109.857257442219</v>
       </c>
       <c r="G26" t="n">
-        <v>125.746526880752</v>
+        <v>45.4176140914697</v>
       </c>
       <c r="H26" t="n">
-        <v>116.877518444484</v>
+        <v>56.3536743982222</v>
       </c>
       <c r="I26" t="n">
-        <v>103.246173502391</v>
+        <v>82.05384806317871</v>
       </c>
       <c r="J26" t="n">
-        <v>101.605901965847</v>
+        <v>96.7883337887199</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="n">
-        <v>133.506247080469</v>
+        <v>118.05661780219</v>
       </c>
       <c r="B27" t="n">
-        <v>70.797325603882</v>
+        <v>77.10793056621399</v>
       </c>
       <c r="C27" t="n">
-        <v>63.4964914061943</v>
+        <v>101.805252674135</v>
       </c>
       <c r="D27" t="n">
-        <v>138.666907302361</v>
+        <v>143.537855515252</v>
       </c>
       <c r="E27" t="n">
-        <v>109.643959951259</v>
+        <v>125.108063890105</v>
       </c>
       <c r="F27" t="n">
-        <v>95.6433184768804</v>
+        <v>85.7634933815407</v>
       </c>
       <c r="G27" t="n">
-        <v>117.540611715599</v>
+        <v>67.75003699306831</v>
       </c>
       <c r="H27" t="n">
-        <v>77.7559002217025</v>
+        <v>86.0906611368722</v>
       </c>
       <c r="I27" t="n">
-        <v>87.3357297803457</v>
+        <v>116.300072825916</v>
       </c>
       <c r="J27" t="n">
-        <v>101.195889686134</v>
+        <v>92.78116265561169</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="n">
-        <v>121.650759782398</v>
+        <v>96.98682394452609</v>
       </c>
       <c r="B28" t="n">
-        <v>118.04647518911</v>
+        <v>101.781518892614</v>
       </c>
       <c r="C28" t="n">
-        <v>97.65379265299821</v>
+        <v>107.773686984917</v>
       </c>
       <c r="D28" t="n">
-        <v>93.3403008724335</v>
+        <v>131.055049142915</v>
       </c>
       <c r="E28" t="n">
-        <v>91.5893808017085</v>
+        <v>98.9435253190336</v>
       </c>
       <c r="F28" t="n">
-        <v>80.42209754038301</v>
+        <v>90.5174032942228</v>
       </c>
       <c r="G28" t="n">
-        <v>99.6240548820232</v>
+        <v>110.315553458508</v>
       </c>
       <c r="H28" t="n">
-        <v>112.970067238534</v>
+        <v>90.5525508734675</v>
       </c>
       <c r="I28" t="n">
-        <v>105.997173919326</v>
+        <v>96.10346406878151</v>
       </c>
       <c r="J28" t="n">
-        <v>110.344034610054</v>
+        <v>105.499052435713</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" t="n">
-        <v>111.834569625483</v>
+        <v>103.772571262391</v>
       </c>
       <c r="B29" t="n">
-        <v>145.300505864875</v>
+        <v>101.634742984585</v>
       </c>
       <c r="C29" t="n">
-        <v>93.8945793726102</v>
+        <v>89.5333816586833</v>
       </c>
       <c r="D29" t="n">
-        <v>101.527712661778</v>
+        <v>79.9357773271168</v>
       </c>
       <c r="E29" t="n">
-        <v>103.246173502391</v>
+        <v>132.82218963638</v>
       </c>
       <c r="F29" t="n">
-        <v>99.1217062316457</v>
+        <v>112.53889113494</v>
       </c>
       <c r="G29" t="n">
-        <v>101.153264174855</v>
+        <v>77.32736858911019</v>
       </c>
       <c r="H29" t="n">
-        <v>132.82218963638</v>
+        <v>91.848337309665</v>
       </c>
       <c r="I29" t="n">
-        <v>80.6843464378456</v>
+        <v>111.200173234735</v>
       </c>
       <c r="J29" t="n">
-        <v>141.844711702953</v>
+        <v>114.142783923183</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="n">
-        <v>104.689998859391</v>
+        <v>112.915423930302</v>
       </c>
       <c r="B30" t="n">
-        <v>74.2686956551709</v>
+        <v>107.850803643371</v>
       </c>
       <c r="C30" t="n">
-        <v>135.958461966508</v>
+        <v>103.984758982876</v>
       </c>
       <c r="D30" t="n">
-        <v>108.518550342788</v>
+        <v>67.5694377915171</v>
       </c>
       <c r="E30" t="n">
-        <v>82.2780577877749</v>
+        <v>88.69438713264979</v>
       </c>
       <c r="F30" t="n">
-        <v>86.85234275864291</v>
+        <v>103.109391594086</v>
       </c>
       <c r="G30" t="n">
-        <v>54.7847910362301</v>
+        <v>88.4407615382471</v>
       </c>
       <c r="H30" t="n">
-        <v>78.4173565703926</v>
+        <v>117.457067372944</v>
       </c>
       <c r="I30" t="n">
-        <v>77.4210050766919</v>
+        <v>94.00539610795261</v>
       </c>
       <c r="J30" t="n">
-        <v>65.4449823688804</v>
+        <v>143.213756370364</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" t="n">
-        <v>112.069013300228</v>
+        <v>88.8342026941244</v>
       </c>
       <c r="B31" t="n">
-        <v>109.668350273633</v>
+        <v>109.753789677891</v>
       </c>
       <c r="C31" t="n">
-        <v>104.532156422172</v>
+        <v>133.160829073397</v>
       </c>
       <c r="D31" t="n">
-        <v>105.510115364829</v>
+        <v>117.457067372944</v>
       </c>
       <c r="E31" t="n">
-        <v>123.198735867911</v>
+        <v>97.4068146299001</v>
       </c>
       <c r="F31" t="n">
-        <v>69.84019385146</v>
+        <v>90.11076022325381</v>
       </c>
       <c r="G31" t="n">
-        <v>63.2782296341011</v>
+        <v>101.509610379451</v>
       </c>
       <c r="H31" t="n">
-        <v>115.356299819609</v>
+        <v>88.4776252011866</v>
       </c>
       <c r="I31" t="n">
-        <v>96.9775894974525</v>
+        <v>101.605901965847</v>
       </c>
       <c r="J31" t="n">
-        <v>97.8342474859204</v>
+        <v>110.344034610054</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" t="n">
-        <v>121.934339003526</v>
+        <v>101.527712661778</v>
       </c>
       <c r="B32" t="n">
-        <v>124.693654991676</v>
+        <v>120.582684461625</v>
       </c>
       <c r="C32" t="n">
-        <v>82.2684696572213</v>
+        <v>64.7525947771864</v>
       </c>
       <c r="D32" t="n">
-        <v>117.628303127307</v>
+        <v>99.1025875804215</v>
       </c>
       <c r="E32" t="n">
-        <v>116.965611066518</v>
+        <v>103.95913028829</v>
       </c>
       <c r="F32" t="n">
-        <v>88.0879048667851</v>
+        <v>99.97728900203251</v>
       </c>
       <c r="G32" t="n">
-        <v>75.3628245017816</v>
+        <v>83.3808588133855</v>
       </c>
       <c r="H32" t="n">
-        <v>109.685272706787</v>
+        <v>88.43122355779759</v>
       </c>
       <c r="I32" t="n">
-        <v>111.142266053493</v>
+        <v>67.3669444092217</v>
       </c>
       <c r="J32" t="n">
-        <v>72.3185763908089</v>
+        <v>96.5315677378461</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="n">
-        <v>71.211853580056</v>
+        <v>113.979383418544</v>
       </c>
       <c r="B33" t="n">
-        <v>83.94000829482491</v>
+        <v>79.31907399193661</v>
       </c>
       <c r="C33" t="n">
-        <v>101.153264174855</v>
+        <v>110.560646422163</v>
       </c>
       <c r="D33" t="n">
-        <v>76.15127318564321</v>
+        <v>101.605901965847</v>
       </c>
       <c r="E33" t="n">
-        <v>99.4742506433679</v>
+        <v>109.910750107961</v>
       </c>
       <c r="F33" t="n">
-        <v>80.8904186170784</v>
+        <v>83.9318024919793</v>
       </c>
       <c r="G33" t="n">
-        <v>96.67179059738611</v>
+        <v>91.5893808017085</v>
       </c>
       <c r="H33" t="n">
-        <v>110.369551806998</v>
+        <v>84.9423845340137</v>
       </c>
       <c r="I33" t="n">
-        <v>124.378861358929</v>
+        <v>56.0248638639467</v>
       </c>
       <c r="J33" t="n">
-        <v>133.05906015884</v>
+        <v>115.678156645278</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="n">
-        <v>138.628628729404</v>
+        <v>119.361122336007</v>
       </c>
       <c r="B34" t="n">
-        <v>127.563245770125</v>
+        <v>102.924822135406</v>
       </c>
       <c r="C34" t="n">
-        <v>118.907106314807</v>
+        <v>81.5156097929501</v>
       </c>
       <c r="D34" t="n">
-        <v>65.7103050217604</v>
+        <v>82.2684696572213</v>
       </c>
       <c r="E34" t="n">
-        <v>105.851342961633</v>
+        <v>86.55709954870569</v>
       </c>
       <c r="F34" t="n">
-        <v>107.109962251814</v>
+        <v>106.813523482624</v>
       </c>
       <c r="G34" t="n">
-        <v>99.89984479089971</v>
+        <v>114.36101921741</v>
       </c>
       <c r="H34" t="n">
-        <v>108.150998346989</v>
+        <v>82.3661267840812</v>
       </c>
       <c r="I34" t="n">
-        <v>97.0423109254225</v>
+        <v>123.904695810247</v>
       </c>
       <c r="J34" t="n">
-        <v>92.70887484915779</v>
+        <v>84.597044032406</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" t="n">
-        <v>94.5048477647823</v>
+        <v>104.965353979726</v>
       </c>
       <c r="B35" t="n">
-        <v>101.071281008758</v>
+        <v>111.142266053493</v>
       </c>
       <c r="C35" t="n">
-        <v>110.938110965641</v>
+        <v>113.360237690944</v>
       </c>
       <c r="D35" t="n">
-        <v>129.839901449671</v>
+        <v>86.47709395660419</v>
       </c>
       <c r="E35" t="n">
-        <v>105.382937046117</v>
+        <v>91.52100860689281</v>
       </c>
       <c r="F35" t="n">
-        <v>117.569187201605</v>
+        <v>71.55077143206969</v>
       </c>
       <c r="G35" t="n">
-        <v>84.5478314073477</v>
+        <v>90.4176638960016</v>
       </c>
       <c r="H35" t="n">
-        <v>117.628303127307</v>
+        <v>95.3555632117136</v>
       </c>
       <c r="I35" t="n">
-        <v>110.996577685631</v>
+        <v>119.720943871803</v>
       </c>
       <c r="J35" t="n">
-        <v>129.922209500563</v>
+        <v>73.7473847870472</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="n">
-        <v>101.16119573156</v>
+        <v>90.4751794345173</v>
       </c>
       <c r="B36" t="n">
-        <v>108.881232957743</v>
+        <v>108.368385576576</v>
       </c>
       <c r="C36" t="n">
-        <v>118.68066143616</v>
+        <v>75.25349845822539</v>
       </c>
       <c r="D36" t="n">
-        <v>108.501095605583</v>
+        <v>131.608986686725</v>
       </c>
       <c r="E36" t="n">
-        <v>112.370608578525</v>
+        <v>23.5411312142934</v>
       </c>
       <c r="F36" t="n">
-        <v>110.285716160104</v>
+        <v>96.0052425942681</v>
       </c>
       <c r="G36" t="n">
-        <v>78.0631384249177</v>
+        <v>56.3536743982222</v>
       </c>
       <c r="H36" t="n">
-        <v>84.04398405421129</v>
+        <v>70.836067030601</v>
       </c>
       <c r="I36" t="n">
-        <v>120.582684461625</v>
+        <v>106.398360507584</v>
       </c>
       <c r="J36" t="n">
-        <v>126.939083677993</v>
+        <v>120.669119642538</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" t="n">
-        <v>72.53442724719559</v>
+        <v>102.78652488269</v>
       </c>
       <c r="B37" t="n">
-        <v>87.50832040327001</v>
+        <v>103.971951604457</v>
       </c>
       <c r="C37" t="n">
-        <v>116.090262288112</v>
+        <v>110.938110965641</v>
       </c>
       <c r="D37" t="n">
-        <v>138.443319466398</v>
+        <v>132.607790003275</v>
       </c>
       <c r="E37" t="n">
-        <v>92.2143628002495</v>
+        <v>99.3003473726741</v>
       </c>
       <c r="F37" t="n">
-        <v>108.025121914088</v>
+        <v>111.142266053493</v>
       </c>
       <c r="G37" t="n">
-        <v>121.445490239961</v>
+        <v>70.836067030601</v>
       </c>
       <c r="H37" t="n">
-        <v>95.51107919052561</v>
+        <v>103.95913028829</v>
       </c>
       <c r="I37" t="n">
-        <v>131.438790327161</v>
+        <v>103.768175789642</v>
       </c>
       <c r="J37" t="n">
-        <v>120.570583021854</v>
+        <v>84.4229509767399</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="n">
-        <v>85.9407078155789</v>
+        <v>95.55214178603249</v>
       </c>
       <c r="B38" t="n">
-        <v>109.753789677891</v>
+        <v>93.7384364984979</v>
       </c>
       <c r="C38" t="n">
-        <v>90.5525508734675</v>
+        <v>78.4173565703926</v>
       </c>
       <c r="D38" t="n">
-        <v>103.330151083921</v>
+        <v>93.8945793726102</v>
       </c>
       <c r="E38" t="n">
-        <v>98.1603121473521</v>
+        <v>81.8739565571769</v>
       </c>
       <c r="F38" t="n">
-        <v>137.553109346779</v>
+        <v>95.0834553988455</v>
       </c>
       <c r="G38" t="n">
-        <v>83.6984360597674</v>
+        <v>96.7883337887199</v>
       </c>
       <c r="H38" t="n">
-        <v>96.7959545821189</v>
+        <v>90.7160233396842</v>
       </c>
       <c r="I38" t="n">
-        <v>75.218977371433</v>
+        <v>62.1296784692623</v>
       </c>
       <c r="J38" t="n">
-        <v>117.629819324523</v>
+        <v>104.401500567048</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="n">
-        <v>96.67179059738611</v>
+        <v>130.848932927859</v>
       </c>
       <c r="B39" t="n">
-        <v>112.84046579721</v>
+        <v>97.1140160699516</v>
       </c>
       <c r="C39" t="n">
-        <v>94.00539610795261</v>
+        <v>88.77221722263739</v>
       </c>
       <c r="D39" t="n">
-        <v>77.3833291136748</v>
+        <v>104.020518115159</v>
       </c>
       <c r="E39" t="n">
-        <v>104.67837693562</v>
+        <v>100.916607642403</v>
       </c>
       <c r="F39" t="n">
-        <v>70.7321303427611</v>
+        <v>118.907106314807</v>
       </c>
       <c r="G39" t="n">
-        <v>80.6843464378456</v>
+        <v>84.4229509767399</v>
       </c>
       <c r="H39" t="n">
-        <v>96.7096540192012</v>
+        <v>99.4050409276965</v>
       </c>
       <c r="I39" t="n">
-        <v>108.881232957743</v>
+        <v>74.2686956551709</v>
       </c>
       <c r="J39" t="n">
-        <v>98.31788259308109</v>
+        <v>89.022237920965</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="n">
-        <v>137.689514312234</v>
+        <v>82.05384806317871</v>
       </c>
       <c r="B40" t="n">
-        <v>102.781846964621</v>
+        <v>90.8230354891367</v>
       </c>
       <c r="C40" t="n">
-        <v>92.5563582744345</v>
+        <v>83.9707197596672</v>
       </c>
       <c r="D40" t="n">
-        <v>129.195948569397</v>
+        <v>53.674307380248</v>
       </c>
       <c r="E40" t="n">
-        <v>106.631989332747</v>
+        <v>107.386631290566</v>
       </c>
       <c r="F40" t="n">
-        <v>111.94773523539</v>
+        <v>81.7360124314487</v>
       </c>
       <c r="G40" t="n">
-        <v>77.32110584369759</v>
+        <v>100.083891460338</v>
       </c>
       <c r="H40" t="n">
-        <v>94.1366054492794</v>
+        <v>81.6073782935228</v>
       </c>
       <c r="I40" t="n">
-        <v>114.840649910703</v>
+        <v>93.7384364984979</v>
       </c>
       <c r="J40" t="n">
-        <v>76.7226624500662</v>
+        <v>137.135866940632</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" t="n">
-        <v>90.7160233396842</v>
+        <v>123.69552396842</v>
       </c>
       <c r="B41" t="n">
-        <v>119.720943871803</v>
+        <v>129.922209500563</v>
       </c>
       <c r="C41" t="n">
-        <v>117.628303127307</v>
+        <v>123.904695810247</v>
       </c>
       <c r="D41" t="n">
-        <v>91.1947016761054</v>
+        <v>98.2772119906606</v>
       </c>
       <c r="E41" t="n">
-        <v>154.432697846321</v>
+        <v>105.26707162491</v>
       </c>
       <c r="F41" t="n">
-        <v>107.386631290566</v>
+        <v>106.644788432915</v>
       </c>
       <c r="G41" t="n">
-        <v>111.377965235851</v>
+        <v>95.53524334488939</v>
       </c>
       <c r="H41" t="n">
-        <v>105.020147321501</v>
+        <v>104.784204855956</v>
       </c>
       <c r="I41" t="n">
-        <v>102.349778730765</v>
+        <v>48.0649106806421</v>
       </c>
       <c r="J41" t="n">
-        <v>134.8257918387</v>
+        <v>110.285716160104</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" t="n">
-        <v>113.832909589636</v>
+        <v>93.8396179447726</v>
       </c>
       <c r="B42" t="n">
-        <v>112.34529473504</v>
+        <v>94.3000113801253</v>
       </c>
       <c r="C42" t="n">
-        <v>109.905557828168</v>
+        <v>49.8427283695054</v>
       </c>
       <c r="D42" t="n">
-        <v>89.3592852355073</v>
+        <v>110.851432078936</v>
       </c>
       <c r="E42" t="n">
-        <v>92.2943792116118</v>
+        <v>110.563226515744</v>
       </c>
       <c r="F42" t="n">
-        <v>124.391656070463</v>
+        <v>109.560818294499</v>
       </c>
       <c r="G42" t="n">
-        <v>97.65501412678</v>
+        <v>120.582684461625</v>
       </c>
       <c r="H42" t="n">
-        <v>98.09740553248611</v>
+        <v>103.246173502391</v>
       </c>
       <c r="I42" t="n">
-        <v>139.978652403396</v>
+        <v>89.2504894982854</v>
       </c>
       <c r="J42" t="n">
-        <v>114.142783923183</v>
+        <v>107.059143871023</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" t="n">
-        <v>112.905030683879</v>
+        <v>112.287290181623</v>
       </c>
       <c r="B43" t="n">
-        <v>65.6735206109835</v>
+        <v>110.36989210853</v>
       </c>
       <c r="C43" t="n">
-        <v>88.68073906390801</v>
+        <v>105.899315129141</v>
       </c>
       <c r="D43" t="n">
-        <v>103.768175789642</v>
+        <v>83.9318024919793</v>
       </c>
       <c r="E43" t="n">
-        <v>105.081676122147</v>
+        <v>88.5414084064482</v>
       </c>
       <c r="F43" t="n">
-        <v>102.217867715665</v>
+        <v>86.1260088679152</v>
       </c>
       <c r="G43" t="n">
-        <v>94.8982101455619</v>
+        <v>91.5410555789864</v>
       </c>
       <c r="H43" t="n">
-        <v>100.737135574829</v>
+        <v>97.4657978622467</v>
       </c>
       <c r="I43" t="n">
-        <v>110.342104661097</v>
+        <v>112.915423930302</v>
       </c>
       <c r="J43" t="n">
-        <v>96.7883337887199</v>
+        <v>88.9073063550718</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" t="n">
-        <v>90.3853772544808</v>
+        <v>116.965611066518</v>
       </c>
       <c r="B44" t="n">
-        <v>90.00221622139721</v>
+        <v>82.9344509841269</v>
       </c>
       <c r="C44" t="n">
-        <v>71.211853580056</v>
+        <v>75.7245676082687</v>
       </c>
       <c r="D44" t="n">
-        <v>109.863950362314</v>
+        <v>73.2706958057026</v>
       </c>
       <c r="E44" t="n">
-        <v>139.097634874965</v>
+        <v>113.693097672461</v>
       </c>
       <c r="F44" t="n">
-        <v>59.8894869001685</v>
+        <v>129.195948569397</v>
       </c>
       <c r="G44" t="n">
-        <v>107.231575553672</v>
+        <v>139.226097720169</v>
       </c>
       <c r="H44" t="n">
-        <v>63.4964914061943</v>
+        <v>75.3628245017816</v>
       </c>
       <c r="I44" t="n">
-        <v>101.781518892614</v>
+        <v>23.5411312142934</v>
       </c>
       <c r="J44" t="n">
-        <v>120.792886795325</v>
+        <v>73.31788623945781</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" t="n">
-        <v>98.09740553248611</v>
+        <v>113.222094021433</v>
       </c>
       <c r="B45" t="n">
-        <v>119.361122336007</v>
+        <v>119.495803934441</v>
       </c>
       <c r="C45" t="n">
-        <v>124.391656070463</v>
+        <v>88.003167460874</v>
       </c>
       <c r="D45" t="n">
-        <v>89.022237920965</v>
+        <v>117.413958896963</v>
       </c>
       <c r="E45" t="n">
-        <v>112.259304757618</v>
+        <v>67.75003699306831</v>
       </c>
       <c r="F45" t="n">
-        <v>94.9324083364465</v>
+        <v>63.4964914061943</v>
       </c>
       <c r="G45" t="n">
-        <v>99.1025875804215</v>
+        <v>59.3435304750264</v>
       </c>
       <c r="H45" t="n">
-        <v>117.663330868376</v>
+        <v>115.14467865213</v>
       </c>
       <c r="I45" t="n">
-        <v>112.557742196006</v>
+        <v>110.784442196858</v>
       </c>
       <c r="J45" t="n">
-        <v>75.3901864242801</v>
+        <v>54.0550672388348</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" t="n">
-        <v>107.751100839436</v>
+        <v>126.732136476781</v>
       </c>
       <c r="B46" t="n">
-        <v>141.968407870617</v>
+        <v>97.0423109254225</v>
       </c>
       <c r="C46" t="n">
-        <v>121.934339003526</v>
+        <v>119.510558692758</v>
       </c>
       <c r="D46" t="n">
-        <v>71.68392664347481</v>
+        <v>122.014044768571</v>
       </c>
       <c r="E46" t="n">
-        <v>59.3435304750264</v>
+        <v>72.88561940650369</v>
       </c>
       <c r="F46" t="n">
-        <v>99.9109109316161</v>
+        <v>58.3943225960823</v>
       </c>
       <c r="G46" t="n">
-        <v>132.607790003275</v>
+        <v>92.5242105064676</v>
       </c>
       <c r="H46" t="n">
-        <v>113.937054397167</v>
+        <v>98.32673788744729</v>
       </c>
       <c r="I46" t="n">
-        <v>109.753789677891</v>
+        <v>52.9897361863582</v>
       </c>
       <c r="J46" t="n">
-        <v>105.510115364829</v>
+        <v>83.0695545218119</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" t="n">
-        <v>110.315553458508</v>
+        <v>109.643959951259</v>
       </c>
       <c r="B47" t="n">
-        <v>93.8110650943905</v>
+        <v>134.358995142702</v>
       </c>
       <c r="C47" t="n">
-        <v>138.628628729404</v>
+        <v>90.8230354891367</v>
       </c>
       <c r="D47" t="n">
-        <v>93.8396179447726</v>
+        <v>141.968407870617</v>
       </c>
       <c r="E47" t="n">
-        <v>69.84019385146</v>
+        <v>129.839901449671</v>
       </c>
       <c r="F47" t="n">
-        <v>129.331901773875</v>
+        <v>122.719137501055</v>
       </c>
       <c r="G47" t="n">
-        <v>65.6735206109835</v>
+        <v>91.87035113138769</v>
       </c>
       <c r="H47" t="n">
-        <v>113.832909589636</v>
+        <v>93.93927745224801</v>
       </c>
       <c r="I47" t="n">
-        <v>99.9109109316161</v>
+        <v>122.345877222426</v>
       </c>
       <c r="J47" t="n">
-        <v>108.667009802108</v>
+        <v>133.300457362705</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" t="n">
-        <v>74.3899291575765</v>
+        <v>103.95913028829</v>
       </c>
       <c r="B48" t="n">
-        <v>96.7883337887199</v>
+        <v>110.119133876867</v>
       </c>
       <c r="C48" t="n">
-        <v>100.737135574829</v>
+        <v>79.37844496320351</v>
       </c>
       <c r="D48" t="n">
-        <v>116.965611066518</v>
+        <v>127.3499995083</v>
       </c>
       <c r="E48" t="n">
-        <v>56.3536743982222</v>
+        <v>143.213756370364</v>
       </c>
       <c r="F48" t="n">
-        <v>110.563226515744</v>
+        <v>100.212071105696</v>
       </c>
       <c r="G48" t="n">
-        <v>110.119133876867</v>
+        <v>122.975116290847</v>
       </c>
       <c r="H48" t="n">
-        <v>84.9423845340137</v>
+        <v>95.6433184768804</v>
       </c>
       <c r="I48" t="n">
-        <v>129.383912001855</v>
+        <v>95.93956705435551</v>
       </c>
       <c r="J48" t="n">
-        <v>122.254159223223</v>
+        <v>107.854172470889</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" t="n">
-        <v>120.570583021854</v>
+        <v>52.9897361863582</v>
       </c>
       <c r="B49" t="n">
-        <v>86.13841618634331</v>
+        <v>101.16119573156</v>
       </c>
       <c r="C49" t="n">
-        <v>112.3453910781</v>
+        <v>112.069013300228</v>
       </c>
       <c r="D49" t="n">
-        <v>127.517030747644</v>
+        <v>85.7634933815407</v>
       </c>
       <c r="E49" t="n">
-        <v>116.300072825916</v>
+        <v>129.539711571983</v>
       </c>
       <c r="F49" t="n">
-        <v>115.14467865213</v>
+        <v>103.743246239459</v>
       </c>
       <c r="G49" t="n">
-        <v>105.899315129141</v>
+        <v>83.84771967115439</v>
       </c>
       <c r="H49" t="n">
-        <v>117.540611715599</v>
+        <v>124.533773422402</v>
       </c>
       <c r="I49" t="n">
-        <v>103.575376410579</v>
+        <v>100.916607642403</v>
       </c>
       <c r="J49" t="n">
-        <v>126.041967978569</v>
+        <v>111.142266053493</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" t="n">
-        <v>108.935552972673</v>
+        <v>122.014044768571</v>
       </c>
       <c r="B50" t="n">
-        <v>109.142525978003</v>
+        <v>97.7603683807402</v>
       </c>
       <c r="C50" t="n">
-        <v>78.0631384249177</v>
+        <v>75.2345741057845</v>
       </c>
       <c r="D50" t="n">
-        <v>98.0924441637672</v>
+        <v>103.800773595078</v>
       </c>
       <c r="E50" t="n">
-        <v>98.2220702939143</v>
+        <v>120.115685038088</v>
       </c>
       <c r="F50" t="n">
-        <v>96.7883337887199</v>
+        <v>92.5726507331038</v>
       </c>
       <c r="G50" t="n">
-        <v>81.9646387118631</v>
+        <v>107.059143871023</v>
       </c>
       <c r="H50" t="n">
-        <v>145.300505864875</v>
+        <v>99.97728900203251</v>
       </c>
       <c r="I50" t="n">
-        <v>84.9423845340137</v>
+        <v>79.19845463294691</v>
       </c>
       <c r="J50" t="n">
-        <v>105.639445213274</v>
+        <v>86.1260088679152</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" t="n">
-        <v>119.583517786632</v>
+        <v>114.623017138233</v>
       </c>
       <c r="B51" t="n">
-        <v>112.970067238534</v>
+        <v>92.7992875057912</v>
       </c>
       <c r="C51" t="n">
-        <v>105.93744331271</v>
+        <v>110.543551173276</v>
       </c>
       <c r="D51" t="n">
-        <v>87.3357297803457</v>
+        <v>129.547777081307</v>
       </c>
       <c r="E51" t="n">
-        <v>112.597606757583</v>
+        <v>83.0695545218119</v>
       </c>
       <c r="F51" t="n">
-        <v>108.081969974353</v>
+        <v>62.2567835118844</v>
       </c>
       <c r="G51" t="n">
-        <v>126.041967978569</v>
+        <v>93.260567691265</v>
       </c>
       <c r="H51" t="n">
-        <v>92.78116265561169</v>
+        <v>116.286350550297</v>
       </c>
       <c r="I51" t="n">
-        <v>117.295112846294</v>
+        <v>91.1771995077554</v>
       </c>
       <c r="J51" t="n">
-        <v>129.383912001855</v>
+        <v>105.382937046117</v>
       </c>
     </row>
   </sheetData>
@@ -5802,47 +5805,47 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="n">
-        <v>97.6905026569398</v>
+        <v>99.84192601641379</v>
       </c>
       <c r="B2" t="n">
-        <v>5.736609631917482</v>
+        <v>7.201587641324305</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="n">
-        <v>101.3102177605001</v>
+        <v>98.92405451786492</v>
       </c>
       <c r="B3" t="n">
-        <v>4.127592647915479</v>
+        <v>6.413307731019045</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="n">
-        <v>99.4489181870881</v>
+        <v>99.21128456819993</v>
       </c>
       <c r="B4" t="n">
-        <v>2.985767494616782</v>
+        <v>3.692510580640086</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="n">
-        <v>100.4277831114167</v>
+        <v>99.89566237782394</v>
       </c>
       <c r="B5" t="n">
-        <v>1.994648517379806</v>
+        <v>3.737791536922627</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="n">
-        <v>101.1396804512815</v>
+        <v>99.29757254063846</v>
       </c>
       <c r="B6" t="n">
-        <v>2.453516030957035</v>
+        <v>4.128625719992157</v>
       </c>
     </row>
   </sheetData>
